--- a/REGULAR/OJT/NEW DONE/MALIGAYO, YOLANDA.xlsx
+++ b/REGULAR/OJT/NEW DONE/MALIGAYO, YOLANDA.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\OJT\NEW DONE\New folder\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\OJT\NEW DONE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAD47A59-0B8A-4F3A-898F-85EBF59AE1A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +23,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="608" uniqueCount="325">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="609" uniqueCount="325">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1014,7 +1013,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -1692,7 +1691,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -1709,26 +1708,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K505" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
-  <autoFilter ref="A8:K505" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K506" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="6">
+    <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="8"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="7"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="6">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="4">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="5"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="4">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="2">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="2">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="0"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2035,34 +2033,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K505"/>
+  <dimension ref="A2:K506"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <pane ySplit="3684" topLeftCell="A2"/>
+      <pane ySplit="3690" topLeftCell="A446" activePane="bottomLeft"/>
       <selection activeCell="A8" sqref="A8:K8"/>
-      <selection pane="bottomLeft" activeCell="E13" sqref="E13"/>
+      <selection pane="bottomLeft" activeCell="B462" sqref="B462"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -2083,7 +2081,7 @@
       <c r="J2" s="55"/>
       <c r="K2" s="56"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -2103,7 +2101,7 @@
       <c r="J3" s="57"/>
       <c r="K3" s="58"/>
     </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -2125,7 +2123,7 @@
       <c r="J4" s="55"/>
       <c r="K4" s="56"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -2133,7 +2131,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -2146,7 +2144,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="53" t="s">
@@ -2163,7 +2161,7 @@
       <c r="J7" s="53"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -2198,7 +2196,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -2217,12 +2215,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>113.5</v>
+        <v>112.5</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="48" t="s">
         <v>96</v>
       </c>
@@ -2244,7 +2242,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="23">
         <v>36342</v>
       </c>
@@ -2270,7 +2268,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="23">
         <v>36373</v>
       </c>
@@ -2294,7 +2292,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="23">
         <v>36404</v>
       </c>
@@ -2320,7 +2318,7 @@
         <v>36320</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="23"/>
       <c r="B14" s="20" t="s">
         <v>116</v>
@@ -2340,7 +2338,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="23">
         <v>36434</v>
       </c>
@@ -2366,7 +2364,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="23"/>
       <c r="B16" s="20" t="s">
         <v>117</v>
@@ -2386,7 +2384,7 @@
       <c r="J16" s="11"/>
       <c r="K16" s="20"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="23">
         <v>36465</v>
       </c>
@@ -2412,7 +2410,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="23"/>
       <c r="B18" s="20" t="s">
         <v>118</v>
@@ -2429,7 +2427,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="23">
         <v>36495</v>
       </c>
@@ -2455,7 +2453,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="23"/>
       <c r="B20" s="20" t="s">
         <v>119</v>
@@ -2475,7 +2473,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="48" t="s">
         <v>114</v>
       </c>
@@ -2497,7 +2495,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="23">
         <v>36526</v>
       </c>
@@ -2523,7 +2521,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="23"/>
       <c r="B23" s="20" t="s">
         <v>124</v>
@@ -2543,7 +2541,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="23">
         <v>36557</v>
       </c>
@@ -2567,7 +2565,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="23">
         <v>36586</v>
       </c>
@@ -2593,7 +2591,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="23"/>
       <c r="B26" s="20" t="s">
         <v>126</v>
@@ -2613,7 +2611,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="23">
         <v>36617</v>
       </c>
@@ -2639,7 +2637,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="23"/>
       <c r="B28" s="20" t="s">
         <v>126</v>
@@ -2659,7 +2657,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="23">
         <v>36647</v>
       </c>
@@ -2685,7 +2683,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="23"/>
       <c r="B30" s="20" t="s">
         <v>130</v>
@@ -2705,7 +2703,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="23">
         <v>36678</v>
       </c>
@@ -2731,7 +2729,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="23"/>
       <c r="B32" s="20" t="s">
         <v>45</v>
@@ -2753,7 +2751,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="23"/>
       <c r="B33" s="20" t="s">
         <v>131</v>
@@ -2773,7 +2771,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="23">
         <v>36708</v>
       </c>
@@ -2797,7 +2795,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="23">
         <v>36739</v>
       </c>
@@ -2823,7 +2821,7 @@
         <v>36838</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="23"/>
       <c r="B36" s="20" t="s">
         <v>45</v>
@@ -2845,7 +2843,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="23"/>
       <c r="B37" s="20" t="s">
         <v>133</v>
@@ -2865,7 +2863,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="23">
         <v>36770</v>
       </c>
@@ -2891,7 +2889,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="23">
         <v>36800</v>
       </c>
@@ -2915,7 +2913,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="23">
         <v>36831</v>
       </c>
@@ -2941,7 +2939,7 @@
         <v>36717</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="23"/>
       <c r="B41" s="20" t="s">
         <v>135</v>
@@ -2961,7 +2959,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="23">
         <v>36861</v>
       </c>
@@ -2987,7 +2985,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="23"/>
       <c r="B43" s="20" t="s">
         <v>136</v>
@@ -3007,7 +3005,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="48" t="s">
         <v>113</v>
       </c>
@@ -3029,7 +3027,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="23">
         <v>36892</v>
       </c>
@@ -3053,7 +3051,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="23">
         <v>36923</v>
       </c>
@@ -3079,7 +3077,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="23">
         <v>36951</v>
       </c>
@@ -3105,7 +3103,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="23"/>
       <c r="B48" s="20" t="s">
         <v>144</v>
@@ -3125,7 +3123,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="23">
         <v>36982</v>
       </c>
@@ -3151,7 +3149,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="23"/>
       <c r="B50" s="20" t="s">
         <v>48</v>
@@ -3173,7 +3171,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="23">
         <v>37012</v>
       </c>
@@ -3197,7 +3195,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="23">
         <v>37043</v>
       </c>
@@ -3221,7 +3219,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="23">
         <v>37073</v>
       </c>
@@ -3245,7 +3243,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="23">
         <v>37104</v>
       </c>
@@ -3271,7 +3269,7 @@
         <v>37111</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="23"/>
       <c r="B55" s="20" t="s">
         <v>147</v>
@@ -3291,7 +3289,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="23">
         <v>37135</v>
       </c>
@@ -3315,7 +3313,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="23">
         <v>37165</v>
       </c>
@@ -3341,7 +3339,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="23">
         <v>37196</v>
       </c>
@@ -3367,7 +3365,7 @@
         <v>37023</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="23"/>
       <c r="B59" s="20" t="s">
         <v>149</v>
@@ -3387,7 +3385,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="23">
         <v>37226</v>
       </c>
@@ -3411,7 +3409,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="48" t="s">
         <v>112</v>
       </c>
@@ -3433,7 +3431,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="23">
         <v>37257</v>
       </c>
@@ -3457,7 +3455,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="23">
         <v>37288</v>
       </c>
@@ -3483,7 +3481,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="23"/>
       <c r="B64" s="20" t="s">
         <v>149</v>
@@ -3503,7 +3501,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="23">
         <v>37316</v>
       </c>
@@ -3527,7 +3525,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="23">
         <v>37347</v>
       </c>
@@ -3551,7 +3549,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="23">
         <v>37377</v>
       </c>
@@ -3577,7 +3575,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="23"/>
       <c r="B68" s="20" t="s">
         <v>46</v>
@@ -3599,7 +3597,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="23"/>
       <c r="B69" s="20" t="s">
         <v>158</v>
@@ -3619,7 +3617,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="23">
         <v>37408</v>
       </c>
@@ -3643,7 +3641,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="23">
         <v>37438</v>
       </c>
@@ -3669,7 +3667,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="23">
         <v>37469</v>
       </c>
@@ -3695,7 +3693,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="23">
         <v>37500</v>
       </c>
@@ -3715,7 +3713,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="23">
         <v>37530</v>
       </c>
@@ -3735,7 +3733,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="23">
         <v>37561</v>
       </c>
@@ -3755,7 +3753,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="23">
         <v>37591</v>
       </c>
@@ -3779,7 +3777,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="48" t="s">
         <v>111</v>
       </c>
@@ -3801,7 +3799,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="23">
         <v>37622</v>
       </c>
@@ -3821,7 +3819,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="23">
         <v>37653</v>
       </c>
@@ -3845,7 +3843,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="23"/>
       <c r="B80" s="20" t="s">
         <v>166</v>
@@ -3862,7 +3860,7 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="23">
         <v>37681</v>
       </c>
@@ -3886,7 +3884,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="23">
         <v>37712</v>
       </c>
@@ -3910,7 +3908,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="23">
         <v>37742</v>
       </c>
@@ -3936,7 +3934,7 @@
         <v>37746</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="23"/>
       <c r="B84" s="20" t="s">
         <v>168</v>
@@ -3956,7 +3954,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="23">
         <v>37773</v>
       </c>
@@ -3982,7 +3980,7 @@
         <v>37683</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="23"/>
       <c r="B86" s="20" t="s">
         <v>174</v>
@@ -4002,7 +4000,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="23">
         <v>37803</v>
       </c>
@@ -4026,7 +4024,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="23">
         <v>37834</v>
       </c>
@@ -4052,7 +4050,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="23"/>
       <c r="B89" s="20" t="s">
         <v>149</v>
@@ -4072,7 +4070,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="23">
         <v>37865</v>
       </c>
@@ -4098,7 +4096,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="23"/>
       <c r="B91" s="20" t="s">
         <v>45</v>
@@ -4120,7 +4118,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="23">
         <v>37895</v>
       </c>
@@ -4146,7 +4144,7 @@
         <v>37904</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="23"/>
       <c r="B93" s="20" t="s">
         <v>45</v>
@@ -4168,7 +4166,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="23"/>
       <c r="B94" s="20" t="s">
         <v>148</v>
@@ -4188,7 +4186,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="23">
         <v>37926</v>
       </c>
@@ -4214,7 +4212,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="23"/>
       <c r="B96" s="20" t="s">
         <v>45</v>
@@ -4236,7 +4234,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="23">
         <v>37956</v>
       </c>
@@ -4262,7 +4260,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="23"/>
       <c r="B98" s="20" t="s">
         <v>55</v>
@@ -4284,7 +4282,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="23"/>
       <c r="B99" s="20" t="s">
         <v>45</v>
@@ -4306,7 +4304,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="23"/>
       <c r="B100" s="20" t="s">
         <v>165</v>
@@ -4326,7 +4324,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="48" t="s">
         <v>110</v>
       </c>
@@ -4348,7 +4346,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="23">
         <v>37987</v>
       </c>
@@ -4374,7 +4372,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="23"/>
       <c r="B103" s="20" t="s">
         <v>116</v>
@@ -4394,7 +4392,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="23">
         <v>38018</v>
       </c>
@@ -4420,7 +4418,7 @@
         <v>38140</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="23"/>
       <c r="B105" s="20" t="s">
         <v>45</v>
@@ -4442,7 +4440,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="23"/>
       <c r="B106" s="20" t="s">
         <v>116</v>
@@ -4462,7 +4460,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="23">
         <v>38047</v>
       </c>
@@ -4486,7 +4484,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="23"/>
       <c r="B108" s="20" t="s">
         <v>183</v>
@@ -4506,7 +4504,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="23">
         <v>38078</v>
       </c>
@@ -4530,7 +4528,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="23">
         <v>38108</v>
       </c>
@@ -4556,7 +4554,7 @@
         <v>38051</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="23"/>
       <c r="B111" s="20" t="s">
         <v>185</v>
@@ -4576,7 +4574,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="23">
         <v>38139</v>
       </c>
@@ -4602,7 +4600,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="23"/>
       <c r="B113" s="20" t="s">
         <v>186</v>
@@ -4622,7 +4620,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="23">
         <v>38169</v>
       </c>
@@ -4646,7 +4644,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="23">
         <v>38200</v>
       </c>
@@ -4672,7 +4670,7 @@
         <v>38146</v>
       </c>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="23"/>
       <c r="B116" s="20" t="s">
         <v>192</v>
@@ -4692,7 +4690,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="23">
         <v>38231</v>
       </c>
@@ -4716,7 +4714,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="23">
         <v>38261</v>
       </c>
@@ -4740,7 +4738,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="23">
         <v>38292</v>
       </c>
@@ -4764,7 +4762,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="23">
         <v>38322</v>
       </c>
@@ -4788,7 +4786,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="23"/>
       <c r="B121" s="20" t="s">
         <v>196</v>
@@ -4808,7 +4806,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="48" t="s">
         <v>109</v>
       </c>
@@ -4830,7 +4828,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="23">
         <v>38353</v>
       </c>
@@ -4854,7 +4852,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="23">
         <v>38384</v>
       </c>
@@ -4878,7 +4876,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="23">
         <v>38412</v>
       </c>
@@ -4904,7 +4902,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="23"/>
       <c r="B126" s="20" t="s">
         <v>45</v>
@@ -4926,7 +4924,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="23"/>
       <c r="B127" s="20" t="s">
         <v>63</v>
@@ -4946,7 +4944,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="23"/>
       <c r="B128" s="20" t="s">
         <v>196</v>
@@ -4966,7 +4964,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="23">
         <v>38443</v>
       </c>
@@ -4990,7 +4988,7 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="23">
         <v>38473</v>
       </c>
@@ -5014,7 +5012,7 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="23">
         <v>38504</v>
       </c>
@@ -5040,7 +5038,7 @@
         <v>38631</v>
       </c>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="23"/>
       <c r="B132" s="20" t="s">
         <v>200</v>
@@ -5060,7 +5058,7 @@
       <c r="J132" s="11"/>
       <c r="K132" s="49"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="23">
         <v>38534</v>
       </c>
@@ -5084,7 +5082,7 @@
       <c r="J133" s="11"/>
       <c r="K133" s="20"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="23">
         <v>38565</v>
       </c>
@@ -5110,7 +5108,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="23"/>
       <c r="B135" s="20" t="s">
         <v>149</v>
@@ -5130,7 +5128,7 @@
       <c r="J135" s="11"/>
       <c r="K135" s="20"/>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="23">
         <v>38596</v>
       </c>
@@ -5150,7 +5148,7 @@
       <c r="J136" s="11"/>
       <c r="K136" s="20"/>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="23">
         <v>38626</v>
       </c>
@@ -5176,7 +5174,7 @@
         <v>38452</v>
       </c>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="23"/>
       <c r="B138" s="20" t="s">
         <v>149</v>
@@ -5196,7 +5194,7 @@
       <c r="J138" s="11"/>
       <c r="K138" s="20"/>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" s="23">
         <v>38657</v>
       </c>
@@ -5220,7 +5218,7 @@
       <c r="J139" s="11"/>
       <c r="K139" s="20"/>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="23">
         <v>38687</v>
       </c>
@@ -5244,7 +5242,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" s="23"/>
       <c r="B141" s="20" t="s">
         <v>157</v>
@@ -5261,7 +5259,7 @@
       <c r="J141" s="11"/>
       <c r="K141" s="20"/>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" s="48" t="s">
         <v>107</v>
       </c>
@@ -5283,7 +5281,7 @@
       <c r="J142" s="11"/>
       <c r="K142" s="20"/>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" s="23">
         <v>38718</v>
       </c>
@@ -5307,7 +5305,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" s="23"/>
       <c r="B144" s="20" t="s">
         <v>206</v>
@@ -5327,7 +5325,7 @@
       <c r="J144" s="11"/>
       <c r="K144" s="20"/>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" s="23">
         <v>38749</v>
       </c>
@@ -5353,7 +5351,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" s="23"/>
       <c r="B146" s="20" t="s">
         <v>177</v>
@@ -5373,7 +5371,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" s="23">
         <v>38777</v>
       </c>
@@ -5399,7 +5397,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" s="23"/>
       <c r="B148" s="20" t="s">
         <v>45</v>
@@ -5421,7 +5419,7 @@
         <v>38901</v>
       </c>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" s="23"/>
       <c r="B149" s="20" t="s">
         <v>63</v>
@@ -5441,7 +5439,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" s="23"/>
       <c r="B150" s="20" t="s">
         <v>208</v>
@@ -5461,7 +5459,7 @@
       <c r="J150" s="11"/>
       <c r="K150" s="20"/>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" s="23">
         <v>38808</v>
       </c>
@@ -5485,7 +5483,7 @@
       <c r="J151" s="11"/>
       <c r="K151" s="20"/>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" s="23"/>
       <c r="B152" s="20" t="s">
         <v>63</v>
@@ -5505,7 +5503,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" s="23">
         <v>38838</v>
       </c>
@@ -5529,7 +5527,7 @@
       <c r="J153" s="11"/>
       <c r="K153" s="20"/>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" s="23">
         <v>38869</v>
       </c>
@@ -5553,7 +5551,7 @@
       <c r="J154" s="11"/>
       <c r="K154" s="20"/>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" s="23">
         <v>38899</v>
       </c>
@@ -5577,7 +5575,7 @@
       <c r="J155" s="11"/>
       <c r="K155" s="20"/>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" s="23">
         <v>38930</v>
       </c>
@@ -5601,7 +5599,7 @@
       <c r="J156" s="11"/>
       <c r="K156" s="20"/>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" s="23">
         <v>38961</v>
       </c>
@@ -5625,7 +5623,7 @@
       <c r="J157" s="11"/>
       <c r="K157" s="20"/>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" s="23">
         <v>38991</v>
       </c>
@@ -5649,7 +5647,7 @@
       <c r="J158" s="11"/>
       <c r="K158" s="20"/>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" s="23">
         <v>39022</v>
       </c>
@@ -5675,7 +5673,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" s="23">
         <v>39052</v>
       </c>
@@ -5701,7 +5699,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" s="23"/>
       <c r="B161" s="20" t="s">
         <v>219</v>
@@ -5721,7 +5719,7 @@
       <c r="J161" s="11"/>
       <c r="K161" s="20"/>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" s="48" t="s">
         <v>108</v>
       </c>
@@ -5743,7 +5741,7 @@
       <c r="J162" s="11"/>
       <c r="K162" s="20"/>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" s="23">
         <v>39083</v>
       </c>
@@ -5767,7 +5765,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" s="23"/>
       <c r="B164" s="20" t="s">
         <v>222</v>
@@ -5787,7 +5785,7 @@
       <c r="J164" s="11"/>
       <c r="K164" s="20"/>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" s="23">
         <v>39114</v>
       </c>
@@ -5813,7 +5811,7 @@
         <v>39418</v>
       </c>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166" s="23"/>
       <c r="B166" s="20" t="s">
         <v>58</v>
@@ -5835,7 +5833,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167" s="23"/>
       <c r="B167" s="20" t="s">
         <v>149</v>
@@ -5855,7 +5853,7 @@
       <c r="J167" s="11"/>
       <c r="K167" s="20"/>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168" s="23">
         <v>39142</v>
       </c>
@@ -5879,7 +5877,7 @@
       <c r="J168" s="11"/>
       <c r="K168" s="20"/>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169" s="23">
         <v>39173</v>
       </c>
@@ -5905,7 +5903,7 @@
         <v>39117</v>
       </c>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" s="23"/>
       <c r="B170" s="20" t="s">
         <v>63</v>
@@ -5925,7 +5923,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171" s="23"/>
       <c r="B171" s="20" t="s">
         <v>46</v>
@@ -5947,7 +5945,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172" s="23">
         <v>39203</v>
       </c>
@@ -5971,7 +5969,7 @@
       <c r="J172" s="11"/>
       <c r="K172" s="20"/>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173" s="23">
         <v>39234</v>
       </c>
@@ -5997,7 +5995,7 @@
         <v>39239</v>
       </c>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174" s="23"/>
       <c r="B174" s="20" t="s">
         <v>167</v>
@@ -6017,7 +6015,7 @@
       <c r="J174" s="11"/>
       <c r="K174" s="20"/>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A175" s="23">
         <v>39264</v>
       </c>
@@ -6043,7 +6041,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176" s="23"/>
       <c r="B176" s="20" t="s">
         <v>228</v>
@@ -6060,7 +6058,7 @@
       <c r="J176" s="11"/>
       <c r="K176" s="20"/>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A177" s="23">
         <v>39295</v>
       </c>
@@ -6084,7 +6082,7 @@
       <c r="J177" s="11"/>
       <c r="K177" s="20"/>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A178" s="23">
         <v>39326</v>
       </c>
@@ -6110,7 +6108,7 @@
         <v>39272</v>
       </c>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A179" s="23"/>
       <c r="B179" s="20" t="s">
         <v>45</v>
@@ -6132,7 +6130,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A180" s="23"/>
       <c r="B180" s="20" t="s">
         <v>186</v>
@@ -6152,7 +6150,7 @@
       <c r="J180" s="11"/>
       <c r="K180" s="20"/>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A181" s="23">
         <v>39356</v>
       </c>
@@ -6176,7 +6174,7 @@
       <c r="J181" s="11"/>
       <c r="K181" s="20"/>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A182" s="23"/>
       <c r="B182" s="20" t="s">
         <v>226</v>
@@ -6196,7 +6194,7 @@
       <c r="J182" s="11"/>
       <c r="K182" s="20"/>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A183" s="23">
         <v>39387</v>
       </c>
@@ -6222,7 +6220,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A184" s="23"/>
       <c r="B184" s="20" t="s">
         <v>197</v>
@@ -6242,7 +6240,7 @@
       <c r="J184" s="11"/>
       <c r="K184" s="20"/>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A185" s="23">
         <v>39417</v>
       </c>
@@ -6266,7 +6264,7 @@
       <c r="J185" s="11"/>
       <c r="K185" s="20"/>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A186" s="48" t="s">
         <v>106</v>
       </c>
@@ -6288,7 +6286,7 @@
       <c r="J186" s="11"/>
       <c r="K186" s="20"/>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A187" s="23">
         <v>39448</v>
       </c>
@@ -6312,7 +6310,7 @@
       <c r="J187" s="11"/>
       <c r="K187" s="20"/>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A188" s="23">
         <v>39479</v>
       </c>
@@ -6336,7 +6334,7 @@
       <c r="J188" s="11"/>
       <c r="K188" s="20"/>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A189" s="23">
         <v>39508</v>
       </c>
@@ -6360,7 +6358,7 @@
       <c r="J189" s="11"/>
       <c r="K189" s="20"/>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A190" s="23">
         <v>39539</v>
       </c>
@@ -6384,7 +6382,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A191" s="23"/>
       <c r="B191" s="20" t="s">
         <v>235</v>
@@ -6404,7 +6402,7 @@
       <c r="J191" s="11"/>
       <c r="K191" s="20"/>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A192" s="23">
         <v>39569</v>
       </c>
@@ -6428,7 +6426,7 @@
       <c r="J192" s="11"/>
       <c r="K192" s="20"/>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A193" s="23">
         <v>39600</v>
       </c>
@@ -6454,7 +6452,7 @@
         <v>39727</v>
       </c>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A194" s="23"/>
       <c r="B194" s="20" t="s">
         <v>63</v>
@@ -6474,7 +6472,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A195" s="23"/>
       <c r="B195" s="20" t="s">
         <v>237</v>
@@ -6494,7 +6492,7 @@
       <c r="J195" s="11"/>
       <c r="K195" s="20"/>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A196" s="23">
         <v>39630</v>
       </c>
@@ -6520,7 +6518,7 @@
         <v>39759</v>
       </c>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A197" s="23"/>
       <c r="B197" s="20" t="s">
         <v>236</v>
@@ -6540,7 +6538,7 @@
       <c r="J197" s="11"/>
       <c r="K197" s="20"/>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A198" s="23">
         <v>39661</v>
       </c>
@@ -6566,7 +6564,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A199" s="23"/>
       <c r="B199" s="20" t="s">
         <v>45</v>
@@ -6588,7 +6586,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A200" s="23"/>
       <c r="B200" s="20" t="s">
         <v>238</v>
@@ -6608,7 +6606,7 @@
       <c r="J200" s="11"/>
       <c r="K200" s="20"/>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A201" s="23">
         <v>39692</v>
       </c>
@@ -6632,7 +6630,7 @@
       <c r="J201" s="11"/>
       <c r="K201" s="20"/>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A202" s="23"/>
       <c r="B202" s="20" t="s">
         <v>244</v>
@@ -6652,7 +6650,7 @@
       <c r="J202" s="11"/>
       <c r="K202" s="20"/>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A203" s="23">
         <v>39722</v>
       </c>
@@ -6678,7 +6676,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A204" s="23"/>
       <c r="B204" s="20" t="s">
         <v>240</v>
@@ -6700,7 +6698,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A205" s="23"/>
       <c r="B205" s="20" t="s">
         <v>236</v>
@@ -6720,7 +6718,7 @@
       <c r="J205" s="11"/>
       <c r="K205" s="20"/>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A206" s="23">
         <v>39753</v>
       </c>
@@ -6746,7 +6744,7 @@
         <v>39579</v>
       </c>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A207" s="23"/>
       <c r="B207" s="20" t="s">
         <v>251</v>
@@ -6766,7 +6764,7 @@
       <c r="J207" s="11"/>
       <c r="K207" s="49"/>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A208" s="23">
         <v>39783</v>
       </c>
@@ -6790,7 +6788,7 @@
       <c r="J208" s="11"/>
       <c r="K208" s="20"/>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A209" s="48" t="s">
         <v>105</v>
       </c>
@@ -6812,7 +6810,7 @@
       <c r="J209" s="11"/>
       <c r="K209" s="20"/>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A210" s="23">
         <v>39814</v>
       </c>
@@ -6836,7 +6834,7 @@
       <c r="J210" s="11"/>
       <c r="K210" s="20"/>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A211" s="23">
         <v>39845</v>
       </c>
@@ -6860,7 +6858,7 @@
       <c r="J211" s="11"/>
       <c r="K211" s="20"/>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A212" s="23">
         <v>39873</v>
       </c>
@@ -6884,7 +6882,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A213" s="23"/>
       <c r="B213" s="20" t="s">
         <v>214</v>
@@ -6904,7 +6902,7 @@
       <c r="J213" s="11"/>
       <c r="K213" s="20"/>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A214" s="23">
         <v>39904</v>
       </c>
@@ -6928,7 +6926,7 @@
       <c r="J214" s="11"/>
       <c r="K214" s="20"/>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A215" s="23">
         <v>39934</v>
       </c>
@@ -6952,7 +6950,7 @@
       <c r="J215" s="11"/>
       <c r="K215" s="20"/>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A216" s="23">
         <v>39965</v>
       </c>
@@ -6976,7 +6974,7 @@
       <c r="J216" s="11"/>
       <c r="K216" s="20"/>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A217" s="23">
         <v>39995</v>
       </c>
@@ -7000,7 +6998,7 @@
       <c r="J217" s="11"/>
       <c r="K217" s="20"/>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A218" s="23">
         <v>40026</v>
       </c>
@@ -7026,7 +7024,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A219" s="23"/>
       <c r="B219" s="20" t="s">
         <v>257</v>
@@ -7046,7 +7044,7 @@
       <c r="J219" s="11"/>
       <c r="K219" s="20"/>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A220" s="23">
         <v>40057</v>
       </c>
@@ -7070,7 +7068,7 @@
       <c r="J220" s="11"/>
       <c r="K220" s="20"/>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A221" s="23">
         <v>40087</v>
       </c>
@@ -7094,7 +7092,7 @@
       <c r="J221" s="11"/>
       <c r="K221" s="20"/>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A222" s="23">
         <v>40118</v>
       </c>
@@ -7120,7 +7118,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A223" s="23"/>
       <c r="B223" s="20" t="s">
         <v>260</v>
@@ -7140,7 +7138,7 @@
       <c r="J223" s="11"/>
       <c r="K223" s="20"/>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A224" s="23">
         <v>40148</v>
       </c>
@@ -7166,7 +7164,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A225" s="23"/>
       <c r="B225" s="20" t="s">
         <v>217</v>
@@ -7188,7 +7186,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A226" s="23"/>
       <c r="B226" s="20" t="s">
         <v>261</v>
@@ -7208,7 +7206,7 @@
       <c r="J226" s="11"/>
       <c r="K226" s="20"/>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A227" s="48" t="s">
         <v>104</v>
       </c>
@@ -7230,7 +7228,7 @@
       <c r="J227" s="11"/>
       <c r="K227" s="20"/>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A228" s="23">
         <v>40179</v>
       </c>
@@ -7256,7 +7254,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A229" s="23"/>
       <c r="B229" s="20" t="s">
         <v>268</v>
@@ -7276,7 +7274,7 @@
       <c r="J229" s="11"/>
       <c r="K229" s="20"/>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A230" s="23">
         <v>40210</v>
       </c>
@@ -7300,7 +7298,7 @@
       <c r="J230" s="11"/>
       <c r="K230" s="20"/>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A231" s="23">
         <v>40238</v>
       </c>
@@ -7324,7 +7322,7 @@
       <c r="J231" s="11"/>
       <c r="K231" s="20"/>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A232" s="23">
         <v>40269</v>
       </c>
@@ -7344,7 +7342,7 @@
       <c r="J232" s="11"/>
       <c r="K232" s="20"/>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A233" s="23">
         <v>40299</v>
       </c>
@@ -7370,7 +7368,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A234" s="23">
         <v>40330</v>
       </c>
@@ -7390,7 +7388,7 @@
       <c r="J234" s="11"/>
       <c r="K234" s="20"/>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A235" s="23">
         <v>40360</v>
       </c>
@@ -7416,7 +7414,7 @@
         <v>40336</v>
       </c>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A236" s="23"/>
       <c r="B236" s="20" t="s">
         <v>270</v>
@@ -7438,7 +7436,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A237" s="23">
         <v>40391</v>
       </c>
@@ -7464,7 +7462,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A238" s="23">
         <v>40422</v>
       </c>
@@ -7490,7 +7488,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A239" s="23">
         <v>40452</v>
       </c>
@@ -7510,7 +7508,7 @@
       <c r="J239" s="11"/>
       <c r="K239" s="20"/>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A240" s="23">
         <v>40483</v>
       </c>
@@ -7536,7 +7534,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A241" s="23">
         <v>40513</v>
       </c>
@@ -7556,7 +7554,7 @@
       <c r="J241" s="11"/>
       <c r="K241" s="20"/>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A242" s="48" t="s">
         <v>103</v>
       </c>
@@ -7578,7 +7576,7 @@
       <c r="J242" s="11"/>
       <c r="K242" s="20"/>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A243" s="23">
         <v>40544</v>
       </c>
@@ -7598,7 +7596,7 @@
       <c r="J243" s="11"/>
       <c r="K243" s="20"/>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A244" s="23">
         <v>40575</v>
       </c>
@@ -7618,7 +7616,7 @@
       <c r="J244" s="11"/>
       <c r="K244" s="20"/>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A245" s="23">
         <v>40603</v>
       </c>
@@ -7642,7 +7640,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A246" s="23">
         <v>40634</v>
       </c>
@@ -7662,7 +7660,7 @@
       <c r="J246" s="11"/>
       <c r="K246" s="20"/>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A247" s="23">
         <v>40664</v>
       </c>
@@ -7682,7 +7680,7 @@
       <c r="J247" s="11"/>
       <c r="K247" s="20"/>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A248" s="23">
         <v>40695</v>
       </c>
@@ -7706,7 +7704,7 @@
       <c r="J248" s="11"/>
       <c r="K248" s="20"/>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A249" s="23">
         <v>40725</v>
       </c>
@@ -7726,7 +7724,7 @@
       <c r="J249" s="11"/>
       <c r="K249" s="20"/>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A250" s="23">
         <v>40756</v>
       </c>
@@ -7746,7 +7744,7 @@
       <c r="J250" s="11"/>
       <c r="K250" s="20"/>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A251" s="23">
         <v>40787</v>
       </c>
@@ -7766,7 +7764,7 @@
       <c r="J251" s="11"/>
       <c r="K251" s="20"/>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A252" s="23">
         <v>40817</v>
       </c>
@@ -7792,7 +7790,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A253" s="23">
         <v>40848</v>
       </c>
@@ -7812,7 +7810,7 @@
       <c r="J253" s="11"/>
       <c r="K253" s="20"/>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A254" s="23">
         <v>40878</v>
       </c>
@@ -7838,7 +7836,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A255" s="23"/>
       <c r="B255" s="20" t="s">
         <v>78</v>
@@ -7855,7 +7853,7 @@
       <c r="J255" s="11"/>
       <c r="K255" s="20"/>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A256" s="48" t="s">
         <v>102</v>
       </c>
@@ -7877,7 +7875,7 @@
       <c r="J256" s="11"/>
       <c r="K256" s="20"/>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A257" s="23">
         <v>40909</v>
       </c>
@@ -7897,7 +7895,7 @@
       <c r="J257" s="11"/>
       <c r="K257" s="20"/>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A258" s="23">
         <v>40940</v>
       </c>
@@ -7923,7 +7921,7 @@
         <v>41184</v>
       </c>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A259" s="23">
         <v>40969</v>
       </c>
@@ -7943,7 +7941,7 @@
       <c r="J259" s="11"/>
       <c r="K259" s="20"/>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A260" s="23">
         <v>41000</v>
       </c>
@@ -7963,7 +7961,7 @@
       <c r="J260" s="11"/>
       <c r="K260" s="20"/>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A261" s="23">
         <v>41030</v>
       </c>
@@ -7989,7 +7987,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A262" s="23">
         <v>41061</v>
       </c>
@@ -8009,7 +8007,7 @@
       <c r="J262" s="11"/>
       <c r="K262" s="20"/>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A263" s="23">
         <v>41091</v>
       </c>
@@ -8029,7 +8027,7 @@
       <c r="J263" s="11"/>
       <c r="K263" s="20"/>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A264" s="23">
         <v>41122</v>
       </c>
@@ -8049,7 +8047,7 @@
       <c r="J264" s="11"/>
       <c r="K264" s="20"/>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A265" s="23">
         <v>41153</v>
       </c>
@@ -8069,7 +8067,7 @@
       <c r="J265" s="11"/>
       <c r="K265" s="20"/>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A266" s="23">
         <v>41183</v>
       </c>
@@ -8089,7 +8087,7 @@
       <c r="J266" s="11"/>
       <c r="K266" s="20"/>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A267" s="23">
         <v>41214</v>
       </c>
@@ -8115,7 +8113,7 @@
         <v>40980</v>
       </c>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A268" s="23"/>
       <c r="B268" s="20" t="s">
         <v>78</v>
@@ -8134,7 +8132,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A269" s="23">
         <v>41244</v>
       </c>
@@ -8160,7 +8158,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A270" s="48" t="s">
         <v>101</v>
       </c>
@@ -8182,7 +8180,7 @@
       <c r="J270" s="11"/>
       <c r="K270" s="20"/>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A271" s="23">
         <v>41275</v>
       </c>
@@ -8202,7 +8200,7 @@
       <c r="J271" s="11"/>
       <c r="K271" s="20"/>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A272" s="23">
         <v>41306</v>
       </c>
@@ -8222,7 +8220,7 @@
       <c r="J272" s="11"/>
       <c r="K272" s="20"/>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A273" s="23">
         <v>41334</v>
       </c>
@@ -8242,7 +8240,7 @@
       <c r="J273" s="11"/>
       <c r="K273" s="20"/>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A274" s="23">
         <v>41365</v>
       </c>
@@ -8262,7 +8260,7 @@
       <c r="J274" s="11"/>
       <c r="K274" s="20"/>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A275" s="23">
         <v>41395</v>
       </c>
@@ -8282,7 +8280,7 @@
       <c r="J275" s="11"/>
       <c r="K275" s="20"/>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A276" s="23">
         <v>41426</v>
       </c>
@@ -8302,7 +8300,7 @@
       <c r="J276" s="11"/>
       <c r="K276" s="20"/>
     </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A277" s="23">
         <v>41456</v>
       </c>
@@ -8328,7 +8326,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A278" s="23">
         <v>41487</v>
       </c>
@@ -8348,7 +8346,7 @@
       <c r="J278" s="11"/>
       <c r="K278" s="20"/>
     </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A279" s="23">
         <v>41518</v>
       </c>
@@ -8368,7 +8366,7 @@
       <c r="J279" s="11"/>
       <c r="K279" s="20"/>
     </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A280" s="23">
         <v>41548</v>
       </c>
@@ -8394,7 +8392,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A281" s="23">
         <v>41579</v>
       </c>
@@ -8414,7 +8412,7 @@
       <c r="J281" s="11"/>
       <c r="K281" s="20"/>
     </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A282" s="23">
         <v>41609</v>
       </c>
@@ -8440,7 +8438,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A283" s="23"/>
       <c r="B283" s="20" t="s">
         <v>227</v>
@@ -8459,7 +8457,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A284" s="48" t="s">
         <v>100</v>
       </c>
@@ -8481,7 +8479,7 @@
       <c r="J284" s="11"/>
       <c r="K284" s="20"/>
     </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A285" s="23">
         <v>41640</v>
       </c>
@@ -8505,7 +8503,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A286" s="23"/>
       <c r="B286" s="20" t="s">
         <v>290</v>
@@ -8527,7 +8525,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A287" s="23">
         <v>41671</v>
       </c>
@@ -8547,7 +8545,7 @@
       <c r="J287" s="11"/>
       <c r="K287" s="20"/>
     </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A288" s="23">
         <v>41699</v>
       </c>
@@ -8567,7 +8565,7 @@
       <c r="J288" s="11"/>
       <c r="K288" s="20"/>
     </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A289" s="23">
         <v>41730</v>
       </c>
@@ -8593,7 +8591,7 @@
         <v>41733</v>
       </c>
     </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A290" s="23"/>
       <c r="B290" s="20" t="s">
         <v>63</v>
@@ -8613,7 +8611,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A291" s="23">
         <v>41760</v>
       </c>
@@ -8633,7 +8631,7 @@
       <c r="J291" s="11"/>
       <c r="K291" s="20"/>
     </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A292" s="23">
         <v>41791</v>
       </c>
@@ -8653,7 +8651,7 @@
       <c r="J292" s="11"/>
       <c r="K292" s="20"/>
     </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A293" s="23">
         <v>41821</v>
       </c>
@@ -8679,7 +8677,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A294" s="23">
         <v>41852</v>
       </c>
@@ -8699,7 +8697,7 @@
       <c r="J294" s="11"/>
       <c r="K294" s="20"/>
     </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A295" s="23">
         <v>41883</v>
       </c>
@@ -8719,7 +8717,7 @@
       <c r="J295" s="11"/>
       <c r="K295" s="20"/>
     </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A296" s="23">
         <v>41913</v>
       </c>
@@ -8739,7 +8737,7 @@
       <c r="J296" s="11"/>
       <c r="K296" s="20"/>
     </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A297" s="23">
         <v>41944</v>
       </c>
@@ -8759,7 +8757,7 @@
       <c r="J297" s="11"/>
       <c r="K297" s="20"/>
     </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A298" s="23">
         <v>41974</v>
       </c>
@@ -8785,7 +8783,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A299" s="23"/>
       <c r="B299" s="20" t="s">
         <v>217</v>
@@ -8807,7 +8805,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A300" s="48" t="s">
         <v>99</v>
       </c>
@@ -8829,7 +8827,7 @@
       <c r="J300" s="11"/>
       <c r="K300" s="20"/>
     </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A301" s="23">
         <v>42005</v>
       </c>
@@ -8849,7 +8847,7 @@
       <c r="J301" s="11"/>
       <c r="K301" s="20"/>
     </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A302" s="23">
         <v>42036</v>
       </c>
@@ -8869,7 +8867,7 @@
       <c r="J302" s="11"/>
       <c r="K302" s="20"/>
     </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A303" s="23">
         <v>42064</v>
       </c>
@@ -8895,7 +8893,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A304" s="23"/>
       <c r="B304" s="20" t="s">
         <v>267</v>
@@ -8917,7 +8915,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A305" s="23">
         <v>42095</v>
       </c>
@@ -8937,7 +8935,7 @@
       <c r="J305" s="11"/>
       <c r="K305" s="20"/>
     </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A306" s="23">
         <v>42125</v>
       </c>
@@ -8963,7 +8961,7 @@
         <v>42221</v>
       </c>
     </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A307" s="23"/>
       <c r="B307" s="20" t="s">
         <v>65</v>
@@ -8985,7 +8983,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A308" s="23">
         <v>42156</v>
       </c>
@@ -9005,7 +9003,7 @@
       <c r="J308" s="11"/>
       <c r="K308" s="20"/>
     </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A309" s="23">
         <v>42186</v>
       </c>
@@ -9025,7 +9023,7 @@
       <c r="J309" s="11"/>
       <c r="K309" s="20"/>
     </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A310" s="23">
         <v>42217</v>
       </c>
@@ -9045,7 +9043,7 @@
       <c r="J310" s="11"/>
       <c r="K310" s="20"/>
     </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A311" s="23">
         <v>42248</v>
       </c>
@@ -9071,7 +9069,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A312" s="23">
         <v>42278</v>
       </c>
@@ -9095,7 +9093,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A313" s="23">
         <v>42309</v>
       </c>
@@ -9121,7 +9119,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A314" s="23">
         <v>42339</v>
       </c>
@@ -9141,7 +9139,7 @@
       <c r="J314" s="11"/>
       <c r="K314" s="20"/>
     </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A315" s="48" t="s">
         <v>98</v>
       </c>
@@ -9163,7 +9161,7 @@
       <c r="J315" s="11"/>
       <c r="K315" s="20"/>
     </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A316" s="23">
         <v>42370</v>
       </c>
@@ -9189,7 +9187,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A317" s="23">
         <v>42401</v>
       </c>
@@ -9209,7 +9207,7 @@
       <c r="J317" s="11"/>
       <c r="K317" s="20"/>
     </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A318" s="23">
         <v>42430</v>
       </c>
@@ -9235,7 +9233,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A319" s="23"/>
       <c r="B319" s="20" t="s">
         <v>177</v>
@@ -9255,7 +9253,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A320" s="23">
         <v>42461</v>
       </c>
@@ -9275,7 +9273,7 @@
       <c r="J320" s="11"/>
       <c r="K320" s="20"/>
     </row>
-    <row r="321" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A321" s="23">
         <v>42491</v>
       </c>
@@ -9301,7 +9299,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="322" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A322" s="23">
         <v>42522</v>
       </c>
@@ -9327,7 +9325,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="323" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A323" s="23"/>
       <c r="B323" s="20" t="s">
         <v>198</v>
@@ -9349,7 +9347,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="324" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A324" s="23">
         <v>42552</v>
       </c>
@@ -9369,7 +9367,7 @@
       <c r="J324" s="11"/>
       <c r="K324" s="20"/>
     </row>
-    <row r="325" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A325" s="23">
         <v>42583</v>
       </c>
@@ -9393,7 +9391,7 @@
       <c r="J325" s="11"/>
       <c r="K325" s="20"/>
     </row>
-    <row r="326" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A326" s="23"/>
       <c r="B326" s="20" t="s">
         <v>49</v>
@@ -9413,7 +9411,7 @@
       <c r="J326" s="11"/>
       <c r="K326" s="20"/>
     </row>
-    <row r="327" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A327" s="23">
         <v>42614</v>
       </c>
@@ -9433,7 +9431,7 @@
       <c r="J327" s="11"/>
       <c r="K327" s="20"/>
     </row>
-    <row r="328" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A328" s="23">
         <v>42644</v>
       </c>
@@ -9453,7 +9451,7 @@
       <c r="J328" s="11"/>
       <c r="K328" s="20"/>
     </row>
-    <row r="329" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A329" s="23">
         <v>42675</v>
       </c>
@@ -9473,7 +9471,7 @@
       <c r="J329" s="11"/>
       <c r="K329" s="20"/>
     </row>
-    <row r="330" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A330" s="23">
         <v>42705</v>
       </c>
@@ -9499,7 +9497,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="331" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A331" s="48" t="s">
         <v>97</v>
       </c>
@@ -9521,7 +9519,7 @@
       <c r="J331" s="11"/>
       <c r="K331" s="20"/>
     </row>
-    <row r="332" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A332" s="23">
         <v>42736</v>
       </c>
@@ -9547,7 +9545,7 @@
         <v>42768</v>
       </c>
     </row>
-    <row r="333" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A333" s="23">
         <v>42767</v>
       </c>
@@ -9567,7 +9565,7 @@
       <c r="J333" s="11"/>
       <c r="K333" s="20"/>
     </row>
-    <row r="334" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A334" s="23">
         <v>42795</v>
       </c>
@@ -9587,7 +9585,7 @@
       <c r="J334" s="11"/>
       <c r="K334" s="20"/>
     </row>
-    <row r="335" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A335" s="23">
         <v>42826</v>
       </c>
@@ -9611,7 +9609,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="336" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A336" s="23">
         <v>42856</v>
       </c>
@@ -9637,7 +9635,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="337" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A337" s="23"/>
       <c r="B337" s="20" t="s">
         <v>65</v>
@@ -9659,7 +9657,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="338" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A338" s="23"/>
       <c r="B338" s="20" t="s">
         <v>45</v>
@@ -9681,7 +9679,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="339" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A339" s="23"/>
       <c r="B339" s="20" t="s">
         <v>63</v>
@@ -9701,7 +9699,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="340" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A340" s="23"/>
       <c r="B340" s="20" t="s">
         <v>45</v>
@@ -9723,7 +9721,7 @@
         <v>42984</v>
       </c>
     </row>
-    <row r="341" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A341" s="23">
         <v>42887</v>
       </c>
@@ -9743,7 +9741,7 @@
       <c r="J341" s="11"/>
       <c r="K341" s="20"/>
     </row>
-    <row r="342" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A342" s="23">
         <v>42917</v>
       </c>
@@ -9769,7 +9767,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="343" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A343" s="23">
         <v>42948</v>
       </c>
@@ -9795,7 +9793,7 @@
         <v>42955</v>
       </c>
     </row>
-    <row r="344" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A344" s="23"/>
       <c r="B344" s="20" t="s">
         <v>45</v>
@@ -9817,7 +9815,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="345" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A345" s="23">
         <v>42979</v>
       </c>
@@ -9837,7 +9835,7 @@
       <c r="J345" s="11"/>
       <c r="K345" s="20"/>
     </row>
-    <row r="346" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A346" s="23">
         <v>43009</v>
       </c>
@@ -9865,7 +9863,7 @@
         <v>42776</v>
       </c>
     </row>
-    <row r="347" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A347" s="23"/>
       <c r="B347" s="20" t="s">
         <v>65</v>
@@ -9887,7 +9885,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="348" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A348" s="23">
         <v>43040</v>
       </c>
@@ -9913,7 +9911,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="349" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A349" s="23"/>
       <c r="B349" s="20" t="s">
         <v>93</v>
@@ -9935,7 +9933,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="350" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A350" s="23">
         <v>43070</v>
       </c>
@@ -9961,7 +9959,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="351" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A351" s="48" t="s">
         <v>44</v>
       </c>
@@ -9983,7 +9981,7 @@
       <c r="J351" s="11"/>
       <c r="K351" s="20"/>
     </row>
-    <row r="352" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A352" s="40">
         <v>43101</v>
       </c>
@@ -10009,7 +10007,7 @@
         <v>43118</v>
       </c>
     </row>
-    <row r="353" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A353" s="40"/>
       <c r="B353" s="20" t="s">
         <v>46</v>
@@ -10026,7 +10024,7 @@
       <c r="J353" s="11"/>
       <c r="K353" s="20"/>
     </row>
-    <row r="354" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A354" s="40">
         <v>43132</v>
       </c>
@@ -10052,7 +10050,7 @@
         <v>43145</v>
       </c>
     </row>
-    <row r="355" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A355" s="40">
         <v>43160</v>
       </c>
@@ -10072,7 +10070,7 @@
       <c r="J355" s="11"/>
       <c r="K355" s="20"/>
     </row>
-    <row r="356" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A356" s="40">
         <v>43191</v>
       </c>
@@ -10098,7 +10096,7 @@
         <v>43176</v>
       </c>
     </row>
-    <row r="357" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A357" s="40"/>
       <c r="B357" s="20" t="s">
         <v>47</v>
@@ -10117,7 +10115,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="358" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A358" s="40"/>
       <c r="B358" s="20" t="s">
         <v>45</v>
@@ -10136,7 +10134,7 @@
         <v>43220</v>
       </c>
     </row>
-    <row r="359" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A359" s="40">
         <v>43221</v>
       </c>
@@ -10156,7 +10154,7 @@
       <c r="J359" s="11"/>
       <c r="K359" s="20"/>
     </row>
-    <row r="360" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A360" s="40">
         <v>43252</v>
       </c>
@@ -10182,7 +10180,7 @@
         <v>43257</v>
       </c>
     </row>
-    <row r="361" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A361" s="40"/>
       <c r="B361" s="20" t="s">
         <v>48</v>
@@ -10201,7 +10199,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="362" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A362" s="40"/>
       <c r="B362" s="20" t="s">
         <v>45</v>
@@ -10220,7 +10218,7 @@
         <v>43272</v>
       </c>
     </row>
-    <row r="363" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A363" s="40"/>
       <c r="B363" s="20" t="s">
         <v>49</v>
@@ -10239,7 +10237,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="364" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A364" s="40"/>
       <c r="B364" s="20" t="s">
         <v>48</v>
@@ -10258,7 +10256,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="365" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A365" s="40">
         <v>43282</v>
       </c>
@@ -10284,7 +10282,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="366" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A366" s="40"/>
       <c r="B366" s="20" t="s">
         <v>55</v>
@@ -10303,7 +10301,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="367" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A367" s="40">
         <v>43313</v>
       </c>
@@ -10329,7 +10327,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="368" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A368" s="40">
         <v>43344</v>
       </c>
@@ -10349,7 +10347,7 @@
       <c r="J368" s="11"/>
       <c r="K368" s="20"/>
     </row>
-    <row r="369" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A369" s="40">
         <v>43374</v>
       </c>
@@ -10375,7 +10373,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="370" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A370" s="40">
         <v>43405</v>
       </c>
@@ -10401,7 +10399,7 @@
         <v>43413</v>
       </c>
     </row>
-    <row r="371" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A371" s="40"/>
       <c r="B371" s="20" t="s">
         <v>45</v>
@@ -10420,7 +10418,7 @@
         <v>43427</v>
       </c>
     </row>
-    <row r="372" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A372" s="40">
         <v>43435</v>
       </c>
@@ -10440,7 +10438,7 @@
       <c r="J372" s="11"/>
       <c r="K372" s="20"/>
     </row>
-    <row r="373" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A373" s="48" t="s">
         <v>61</v>
       </c>
@@ -10458,7 +10456,7 @@
       <c r="J373" s="11"/>
       <c r="K373" s="20"/>
     </row>
-    <row r="374" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A374" s="40">
         <v>43466</v>
       </c>
@@ -10484,7 +10482,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="375" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A375" s="40">
         <v>43497</v>
       </c>
@@ -10504,7 +10502,7 @@
       <c r="J375" s="11"/>
       <c r="K375" s="20"/>
     </row>
-    <row r="376" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A376" s="40">
         <v>43525</v>
       </c>
@@ -10524,7 +10522,7 @@
       <c r="J376" s="11"/>
       <c r="K376" s="20"/>
     </row>
-    <row r="377" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A377" s="40">
         <v>43556</v>
       </c>
@@ -10550,7 +10548,7 @@
         <v>43566</v>
       </c>
     </row>
-    <row r="378" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A378" s="40"/>
       <c r="B378" s="20" t="s">
         <v>45</v>
@@ -10569,7 +10567,7 @@
         <v>43581</v>
       </c>
     </row>
-    <row r="379" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A379" s="40"/>
       <c r="B379" s="20" t="s">
         <v>63</v>
@@ -10586,7 +10584,7 @@
         <v>43580</v>
       </c>
     </row>
-    <row r="380" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A380" s="40">
         <v>43586</v>
       </c>
@@ -10612,7 +10610,7 @@
         <v>43587</v>
       </c>
     </row>
-    <row r="381" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A381" s="40">
         <v>43617</v>
       </c>
@@ -10638,7 +10636,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="382" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A382" s="40">
         <v>43647</v>
       </c>
@@ -10658,7 +10656,7 @@
       <c r="J382" s="11"/>
       <c r="K382" s="20"/>
     </row>
-    <row r="383" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A383" s="40">
         <v>43678</v>
       </c>
@@ -10684,7 +10682,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="384" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A384" s="40"/>
       <c r="B384" s="20" t="s">
         <v>48</v>
@@ -10703,7 +10701,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="385" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A385" s="40"/>
       <c r="B385" s="20" t="s">
         <v>49</v>
@@ -10722,7 +10720,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="386" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A386" s="40">
         <v>43709</v>
       </c>
@@ -10748,7 +10746,7 @@
         <v>43719</v>
       </c>
     </row>
-    <row r="387" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A387" s="40">
         <v>43739</v>
       </c>
@@ -10768,7 +10766,7 @@
       <c r="J387" s="11"/>
       <c r="K387" s="20"/>
     </row>
-    <row r="388" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A388" s="40">
         <v>43770</v>
       </c>
@@ -10788,7 +10786,7 @@
       <c r="J388" s="11"/>
       <c r="K388" s="20"/>
     </row>
-    <row r="389" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A389" s="40">
         <v>43800</v>
       </c>
@@ -10814,7 +10812,7 @@
         <v>43805</v>
       </c>
     </row>
-    <row r="390" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A390" s="40"/>
       <c r="B390" s="20" t="s">
         <v>65</v>
@@ -10836,7 +10834,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="391" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A391" s="40"/>
       <c r="B391" s="20" t="s">
         <v>55</v>
@@ -10858,7 +10856,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="392" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A392" s="48" t="s">
         <v>72</v>
       </c>
@@ -10876,7 +10874,7 @@
       <c r="J392" s="11"/>
       <c r="K392" s="20"/>
     </row>
-    <row r="393" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A393" s="40">
         <v>43831</v>
       </c>
@@ -10900,7 +10898,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="394" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A394" s="40">
         <v>43862</v>
       </c>
@@ -10926,7 +10924,7 @@
         <v>43887</v>
       </c>
     </row>
-    <row r="395" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A395" s="40"/>
       <c r="B395" s="20" t="s">
         <v>45</v>
@@ -10945,7 +10943,7 @@
         <v>43906</v>
       </c>
     </row>
-    <row r="396" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A396" s="40">
         <v>43891</v>
       </c>
@@ -10965,7 +10963,7 @@
       <c r="J396" s="11"/>
       <c r="K396" s="20"/>
     </row>
-    <row r="397" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A397" s="40">
         <v>43922</v>
       </c>
@@ -10985,7 +10983,7 @@
       <c r="J397" s="11"/>
       <c r="K397" s="20"/>
     </row>
-    <row r="398" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A398" s="40">
         <v>43952</v>
       </c>
@@ -11011,7 +11009,7 @@
         <v>43973</v>
       </c>
     </row>
-    <row r="399" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A399" s="40">
         <v>43983</v>
       </c>
@@ -11037,7 +11035,7 @@
         <v>43985</v>
       </c>
     </row>
-    <row r="400" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A400" s="40"/>
       <c r="B400" s="20" t="s">
         <v>45</v>
@@ -11056,7 +11054,7 @@
         <v>43997</v>
       </c>
     </row>
-    <row r="401" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A401" s="40">
         <v>44013</v>
       </c>
@@ -11076,7 +11074,7 @@
       <c r="J401" s="11"/>
       <c r="K401" s="20"/>
     </row>
-    <row r="402" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A402" s="40">
         <v>44044</v>
       </c>
@@ -11096,7 +11094,7 @@
       <c r="J402" s="11"/>
       <c r="K402" s="20"/>
     </row>
-    <row r="403" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A403" s="40">
         <v>44075</v>
       </c>
@@ -11122,7 +11120,7 @@
         <v>44090</v>
       </c>
     </row>
-    <row r="404" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A404" s="40">
         <v>44105</v>
       </c>
@@ -11148,7 +11146,7 @@
         <v>44116</v>
       </c>
     </row>
-    <row r="405" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A405" s="40"/>
       <c r="B405" s="20" t="s">
         <v>63</v>
@@ -11165,7 +11163,7 @@
         <v>44119</v>
       </c>
     </row>
-    <row r="406" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A406" s="40"/>
       <c r="B406" s="20" t="s">
         <v>75</v>
@@ -11184,7 +11182,7 @@
         <v>44131</v>
       </c>
     </row>
-    <row r="407" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A407" s="40">
         <v>44136</v>
       </c>
@@ -11204,7 +11202,7 @@
       <c r="J407" s="11"/>
       <c r="K407" s="20"/>
     </row>
-    <row r="408" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A408" s="40">
         <v>44166</v>
       </c>
@@ -11230,7 +11228,7 @@
         <v>44181</v>
       </c>
     </row>
-    <row r="409" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A409" s="40"/>
       <c r="B409" s="20" t="s">
         <v>65</v>
@@ -11252,7 +11250,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="410" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A410" s="40"/>
       <c r="B410" s="20" t="s">
         <v>78</v>
@@ -11269,7 +11267,7 @@
       <c r="J410" s="11"/>
       <c r="K410" s="20"/>
     </row>
-    <row r="411" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A411" s="48" t="s">
         <v>77</v>
       </c>
@@ -11287,7 +11285,7 @@
       <c r="J411" s="11"/>
       <c r="K411" s="20"/>
     </row>
-    <row r="412" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A412" s="40">
         <v>44197</v>
       </c>
@@ -11313,7 +11311,7 @@
         <v>44201</v>
       </c>
     </row>
-    <row r="413" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A413" s="40"/>
       <c r="B413" s="20" t="s">
         <v>45</v>
@@ -11332,7 +11330,7 @@
         <v>44216</v>
       </c>
     </row>
-    <row r="414" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A414" s="40">
         <v>44228</v>
       </c>
@@ -11358,7 +11356,7 @@
         <v>44243</v>
       </c>
     </row>
-    <row r="415" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A415" s="40"/>
       <c r="B415" s="20" t="s">
         <v>46</v>
@@ -11377,7 +11375,7 @@
         <v>44249</v>
       </c>
     </row>
-    <row r="416" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A416" s="40">
         <v>44256</v>
       </c>
@@ -11397,7 +11395,7 @@
       <c r="J416" s="11"/>
       <c r="K416" s="20"/>
     </row>
-    <row r="417" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A417" s="40">
         <v>44287</v>
       </c>
@@ -11423,7 +11421,7 @@
         <v>44299</v>
       </c>
     </row>
-    <row r="418" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A418" s="40"/>
       <c r="B418" s="20" t="s">
         <v>63</v>
@@ -11440,7 +11438,7 @@
         <v>44312</v>
       </c>
     </row>
-    <row r="419" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A419" s="40">
         <v>44317</v>
       </c>
@@ -11466,7 +11464,7 @@
         <v>44319</v>
       </c>
     </row>
-    <row r="420" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A420" s="40"/>
       <c r="B420" s="20" t="s">
         <v>45</v>
@@ -11485,7 +11483,7 @@
         <v>44335</v>
       </c>
     </row>
-    <row r="421" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A421" s="40">
         <v>44348</v>
       </c>
@@ -11511,7 +11509,7 @@
         <v>44354</v>
       </c>
     </row>
-    <row r="422" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A422" s="40"/>
       <c r="B422" s="20" t="s">
         <v>48</v>
@@ -11530,7 +11528,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="423" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A423" s="40">
         <v>44378</v>
       </c>
@@ -11556,7 +11554,7 @@
         <v>44385</v>
       </c>
     </row>
-    <row r="424" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A424" s="40"/>
       <c r="B424" s="20" t="s">
         <v>45</v>
@@ -11575,7 +11573,7 @@
         <v>44389</v>
       </c>
     </row>
-    <row r="425" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A425" s="40"/>
       <c r="B425" s="20" t="s">
         <v>45</v>
@@ -11594,7 +11592,7 @@
         <v>44417</v>
       </c>
     </row>
-    <row r="426" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A426" s="40">
         <v>44409</v>
       </c>
@@ -11614,7 +11612,7 @@
       <c r="J426" s="11"/>
       <c r="K426" s="20"/>
     </row>
-    <row r="427" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A427" s="40">
         <v>44440</v>
       </c>
@@ -11640,7 +11638,7 @@
         <v>44442</v>
       </c>
     </row>
-    <row r="428" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A428" s="40"/>
       <c r="B428" s="20" t="s">
         <v>45</v>
@@ -11659,7 +11657,7 @@
         <v>44446</v>
       </c>
     </row>
-    <row r="429" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A429" s="40">
         <v>44470</v>
       </c>
@@ -11685,7 +11683,7 @@
         <v>44495</v>
       </c>
     </row>
-    <row r="430" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A430" s="40">
         <v>44501</v>
       </c>
@@ -11705,7 +11703,7 @@
       <c r="J430" s="11"/>
       <c r="K430" s="20"/>
     </row>
-    <row r="431" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A431" s="40">
         <v>44531</v>
       </c>
@@ -11731,7 +11729,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="432" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A432" s="48" t="s">
         <v>81</v>
       </c>
@@ -11749,7 +11747,7 @@
       <c r="J432" s="11"/>
       <c r="K432" s="20"/>
     </row>
-    <row r="433" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A433" s="40">
         <v>44562</v>
       </c>
@@ -11773,7 +11771,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="434" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A434" s="40">
         <v>44593</v>
       </c>
@@ -11799,7 +11797,7 @@
         <v>44599</v>
       </c>
     </row>
-    <row r="435" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A435" s="40"/>
       <c r="B435" s="20" t="s">
         <v>55</v>
@@ -11818,7 +11816,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="436" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A436" s="40">
         <v>44621</v>
       </c>
@@ -11844,7 +11842,7 @@
         <v>44641</v>
       </c>
     </row>
-    <row r="437" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A437" s="40">
         <v>44652</v>
       </c>
@@ -11868,7 +11866,7 @@
         <v>44669</v>
       </c>
     </row>
-    <row r="438" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A438" s="40"/>
       <c r="B438" s="20" t="s">
         <v>63</v>
@@ -11885,7 +11883,7 @@
         <v>44676</v>
       </c>
     </row>
-    <row r="439" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A439" s="40">
         <v>44682</v>
       </c>
@@ -11911,7 +11909,7 @@
         <v>44686</v>
       </c>
     </row>
-    <row r="440" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A440" s="40">
         <v>44713</v>
       </c>
@@ -11937,7 +11935,7 @@
         <v>44732</v>
       </c>
     </row>
-    <row r="441" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A441" s="40"/>
       <c r="B441" s="20" t="s">
         <v>45</v>
@@ -11956,7 +11954,7 @@
         <v>44739</v>
       </c>
     </row>
-    <row r="442" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A442" s="40">
         <v>44743</v>
       </c>
@@ -11982,7 +11980,7 @@
         <v>44757</v>
       </c>
     </row>
-    <row r="443" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A443" s="40"/>
       <c r="B443" s="20" t="s">
         <v>65</v>
@@ -12001,7 +11999,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="444" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A444" s="40"/>
       <c r="B444" s="20" t="s">
         <v>45</v>
@@ -12023,7 +12021,7 @@
         <v>44768</v>
       </c>
     </row>
-    <row r="445" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A445" s="40">
         <v>44774</v>
       </c>
@@ -12049,7 +12047,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="446" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A446" s="40">
         <v>44805</v>
       </c>
@@ -12075,7 +12073,7 @@
         <v>44810</v>
       </c>
     </row>
-    <row r="447" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A447" s="40">
         <v>44835</v>
       </c>
@@ -12099,7 +12097,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="448" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A448" s="40"/>
       <c r="B448" s="20" t="s">
         <v>48</v>
@@ -12121,7 +12119,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="449" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A449" s="40">
         <v>44866</v>
       </c>
@@ -12141,7 +12139,7 @@
       <c r="J449" s="11"/>
       <c r="K449" s="20"/>
     </row>
-    <row r="450" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A450" s="40">
         <v>44896</v>
       </c>
@@ -12167,7 +12165,7 @@
         <v>44910</v>
       </c>
     </row>
-    <row r="451" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A451" s="48" t="s">
         <v>90</v>
       </c>
@@ -12185,7 +12183,7 @@
       <c r="J451" s="11"/>
       <c r="K451" s="20"/>
     </row>
-    <row r="452" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A452" s="40">
         <v>44927</v>
       </c>
@@ -12211,7 +12209,7 @@
         <v>44931</v>
       </c>
     </row>
-    <row r="453" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A453" s="40"/>
       <c r="B453" s="20" t="s">
         <v>45</v>
@@ -12233,7 +12231,7 @@
         <v>44953</v>
       </c>
     </row>
-    <row r="454" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A454" s="40">
         <v>44958</v>
       </c>
@@ -12259,7 +12257,7 @@
         <v>44967</v>
       </c>
     </row>
-    <row r="455" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A455" s="40"/>
       <c r="B455" s="20" t="s">
         <v>93</v>
@@ -12281,7 +12279,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="456" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A456" s="40">
         <v>44986</v>
       </c>
@@ -12307,7 +12305,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="457" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A457" s="40"/>
       <c r="B457" s="20" t="s">
         <v>45</v>
@@ -12329,7 +12327,7 @@
         <v>44999</v>
       </c>
     </row>
-    <row r="458" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A458" s="40">
         <v>45017</v>
       </c>
@@ -12355,7 +12353,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="459" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A459" s="40"/>
       <c r="B459" s="20" t="s">
         <v>63</v>
@@ -12375,7 +12373,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="460" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A460" s="40">
         <v>45047</v>
       </c>
@@ -12399,11 +12397,11 @@
         <v>323</v>
       </c>
     </row>
-    <row r="461" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A461" s="40">
-        <v>45078</v>
-      </c>
-      <c r="B461" s="20"/>
+    <row r="461" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A461" s="40"/>
+      <c r="B461" s="20" t="s">
+        <v>45</v>
+      </c>
       <c r="C461" s="13"/>
       <c r="D461" s="39"/>
       <c r="E461" s="9"/>
@@ -12412,14 +12410,18 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H461" s="39"/>
+      <c r="H461" s="39">
+        <v>1</v>
+      </c>
       <c r="I461" s="9"/>
       <c r="J461" s="11"/>
-      <c r="K461" s="20"/>
-    </row>
-    <row r="462" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K461" s="49">
+        <v>45065</v>
+      </c>
+    </row>
+    <row r="462" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A462" s="40">
-        <v>45108</v>
+        <v>45078</v>
       </c>
       <c r="B462" s="20"/>
       <c r="C462" s="13"/>
@@ -12435,9 +12437,9 @@
       <c r="J462" s="11"/>
       <c r="K462" s="20"/>
     </row>
-    <row r="463" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A463" s="40">
-        <v>45139</v>
+        <v>45108</v>
       </c>
       <c r="B463" s="20"/>
       <c r="C463" s="13"/>
@@ -12453,9 +12455,9 @@
       <c r="J463" s="11"/>
       <c r="K463" s="20"/>
     </row>
-    <row r="464" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A464" s="40">
-        <v>45170</v>
+        <v>45139</v>
       </c>
       <c r="B464" s="20"/>
       <c r="C464" s="13"/>
@@ -12471,9 +12473,9 @@
       <c r="J464" s="11"/>
       <c r="K464" s="20"/>
     </row>
-    <row r="465" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A465" s="40">
-        <v>45200</v>
+        <v>45170</v>
       </c>
       <c r="B465" s="20"/>
       <c r="C465" s="13"/>
@@ -12489,9 +12491,9 @@
       <c r="J465" s="11"/>
       <c r="K465" s="20"/>
     </row>
-    <row r="466" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A466" s="40">
-        <v>45231</v>
+        <v>45200</v>
       </c>
       <c r="B466" s="20"/>
       <c r="C466" s="13"/>
@@ -12507,9 +12509,9 @@
       <c r="J466" s="11"/>
       <c r="K466" s="20"/>
     </row>
-    <row r="467" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A467" s="40">
-        <v>45261</v>
+        <v>45231</v>
       </c>
       <c r="B467" s="20"/>
       <c r="C467" s="13"/>
@@ -12525,9 +12527,9 @@
       <c r="J467" s="11"/>
       <c r="K467" s="20"/>
     </row>
-    <row r="468" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A468" s="40">
-        <v>45292</v>
+        <v>45261</v>
       </c>
       <c r="B468" s="20"/>
       <c r="C468" s="13"/>
@@ -12543,9 +12545,9 @@
       <c r="J468" s="11"/>
       <c r="K468" s="20"/>
     </row>
-    <row r="469" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A469" s="40">
-        <v>45323</v>
+        <v>45292</v>
       </c>
       <c r="B469" s="20"/>
       <c r="C469" s="13"/>
@@ -12561,9 +12563,9 @@
       <c r="J469" s="11"/>
       <c r="K469" s="20"/>
     </row>
-    <row r="470" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A470" s="40">
-        <v>45352</v>
+        <v>45323</v>
       </c>
       <c r="B470" s="20"/>
       <c r="C470" s="13"/>
@@ -12579,9 +12581,9 @@
       <c r="J470" s="11"/>
       <c r="K470" s="20"/>
     </row>
-    <row r="471" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A471" s="40">
-        <v>45383</v>
+        <v>45352</v>
       </c>
       <c r="B471" s="20"/>
       <c r="C471" s="13"/>
@@ -12597,9 +12599,9 @@
       <c r="J471" s="11"/>
       <c r="K471" s="20"/>
     </row>
-    <row r="472" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A472" s="40">
-        <v>45413</v>
+        <v>45383</v>
       </c>
       <c r="B472" s="20"/>
       <c r="C472" s="13"/>
@@ -12615,9 +12617,9 @@
       <c r="J472" s="11"/>
       <c r="K472" s="20"/>
     </row>
-    <row r="473" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A473" s="40">
-        <v>45444</v>
+        <v>45413</v>
       </c>
       <c r="B473" s="20"/>
       <c r="C473" s="13"/>
@@ -12633,9 +12635,9 @@
       <c r="J473" s="11"/>
       <c r="K473" s="20"/>
     </row>
-    <row r="474" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A474" s="40">
-        <v>45474</v>
+        <v>45444</v>
       </c>
       <c r="B474" s="20"/>
       <c r="C474" s="13"/>
@@ -12651,9 +12653,9 @@
       <c r="J474" s="11"/>
       <c r="K474" s="20"/>
     </row>
-    <row r="475" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A475" s="40">
-        <v>45505</v>
+        <v>45474</v>
       </c>
       <c r="B475" s="20"/>
       <c r="C475" s="13"/>
@@ -12669,9 +12671,9 @@
       <c r="J475" s="11"/>
       <c r="K475" s="20"/>
     </row>
-    <row r="476" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A476" s="40">
-        <v>45536</v>
+        <v>45505</v>
       </c>
       <c r="B476" s="20"/>
       <c r="C476" s="13"/>
@@ -12687,9 +12689,9 @@
       <c r="J476" s="11"/>
       <c r="K476" s="20"/>
     </row>
-    <row r="477" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A477" s="40">
-        <v>45566</v>
+        <v>45536</v>
       </c>
       <c r="B477" s="20"/>
       <c r="C477" s="13"/>
@@ -12705,9 +12707,9 @@
       <c r="J477" s="11"/>
       <c r="K477" s="20"/>
     </row>
-    <row r="478" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A478" s="40">
-        <v>45597</v>
+        <v>45566</v>
       </c>
       <c r="B478" s="20"/>
       <c r="C478" s="13"/>
@@ -12723,9 +12725,9 @@
       <c r="J478" s="11"/>
       <c r="K478" s="20"/>
     </row>
-    <row r="479" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A479" s="40">
-        <v>45627</v>
+        <v>45597</v>
       </c>
       <c r="B479" s="20"/>
       <c r="C479" s="13"/>
@@ -12741,9 +12743,9 @@
       <c r="J479" s="11"/>
       <c r="K479" s="20"/>
     </row>
-    <row r="480" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A480" s="40">
-        <v>45658</v>
+        <v>45627</v>
       </c>
       <c r="B480" s="20"/>
       <c r="C480" s="13"/>
@@ -12759,9 +12761,9 @@
       <c r="J480" s="11"/>
       <c r="K480" s="20"/>
     </row>
-    <row r="481" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A481" s="40">
-        <v>45689</v>
+        <v>45658</v>
       </c>
       <c r="B481" s="20"/>
       <c r="C481" s="13"/>
@@ -12777,9 +12779,9 @@
       <c r="J481" s="11"/>
       <c r="K481" s="20"/>
     </row>
-    <row r="482" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A482" s="40">
-        <v>45717</v>
+        <v>45689</v>
       </c>
       <c r="B482" s="20"/>
       <c r="C482" s="13"/>
@@ -12795,9 +12797,9 @@
       <c r="J482" s="11"/>
       <c r="K482" s="20"/>
     </row>
-    <row r="483" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A483" s="40">
-        <v>45748</v>
+        <v>45717</v>
       </c>
       <c r="B483" s="20"/>
       <c r="C483" s="13"/>
@@ -12813,9 +12815,9 @@
       <c r="J483" s="11"/>
       <c r="K483" s="20"/>
     </row>
-    <row r="484" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A484" s="40">
-        <v>45778</v>
+        <v>45748</v>
       </c>
       <c r="B484" s="20"/>
       <c r="C484" s="13"/>
@@ -12831,9 +12833,9 @@
       <c r="J484" s="11"/>
       <c r="K484" s="20"/>
     </row>
-    <row r="485" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A485" s="40">
-        <v>45809</v>
+        <v>45778</v>
       </c>
       <c r="B485" s="20"/>
       <c r="C485" s="13"/>
@@ -12849,9 +12851,9 @@
       <c r="J485" s="11"/>
       <c r="K485" s="20"/>
     </row>
-    <row r="486" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A486" s="40">
-        <v>45839</v>
+        <v>45809</v>
       </c>
       <c r="B486" s="20"/>
       <c r="C486" s="13"/>
@@ -12867,9 +12869,9 @@
       <c r="J486" s="11"/>
       <c r="K486" s="20"/>
     </row>
-    <row r="487" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A487" s="40">
-        <v>45870</v>
+        <v>45839</v>
       </c>
       <c r="B487" s="20"/>
       <c r="C487" s="13"/>
@@ -12885,9 +12887,9 @@
       <c r="J487" s="11"/>
       <c r="K487" s="20"/>
     </row>
-    <row r="488" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A488" s="40">
-        <v>45901</v>
+        <v>45870</v>
       </c>
       <c r="B488" s="20"/>
       <c r="C488" s="13"/>
@@ -12903,9 +12905,9 @@
       <c r="J488" s="11"/>
       <c r="K488" s="20"/>
     </row>
-    <row r="489" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A489" s="40">
-        <v>45931</v>
+        <v>45901</v>
       </c>
       <c r="B489" s="20"/>
       <c r="C489" s="13"/>
@@ -12921,9 +12923,9 @@
       <c r="J489" s="11"/>
       <c r="K489" s="20"/>
     </row>
-    <row r="490" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A490" s="40">
-        <v>45962</v>
+        <v>45931</v>
       </c>
       <c r="B490" s="20"/>
       <c r="C490" s="13"/>
@@ -12939,9 +12941,9 @@
       <c r="J490" s="11"/>
       <c r="K490" s="20"/>
     </row>
-    <row r="491" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A491" s="40">
-        <v>45992</v>
+        <v>45962</v>
       </c>
       <c r="B491" s="20"/>
       <c r="C491" s="13"/>
@@ -12957,9 +12959,9 @@
       <c r="J491" s="11"/>
       <c r="K491" s="20"/>
     </row>
-    <row r="492" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A492" s="40">
-        <v>46023</v>
+        <v>45992</v>
       </c>
       <c r="B492" s="20"/>
       <c r="C492" s="13"/>
@@ -12975,9 +12977,9 @@
       <c r="J492" s="11"/>
       <c r="K492" s="20"/>
     </row>
-    <row r="493" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A493" s="40">
-        <v>46054</v>
+        <v>46023</v>
       </c>
       <c r="B493" s="20"/>
       <c r="C493" s="13"/>
@@ -12993,9 +12995,9 @@
       <c r="J493" s="11"/>
       <c r="K493" s="20"/>
     </row>
-    <row r="494" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A494" s="40">
-        <v>46082</v>
+        <v>46054</v>
       </c>
       <c r="B494" s="20"/>
       <c r="C494" s="13"/>
@@ -13011,9 +13013,9 @@
       <c r="J494" s="11"/>
       <c r="K494" s="20"/>
     </row>
-    <row r="495" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A495" s="40">
-        <v>46113</v>
+        <v>46082</v>
       </c>
       <c r="B495" s="20"/>
       <c r="C495" s="13"/>
@@ -13029,9 +13031,9 @@
       <c r="J495" s="11"/>
       <c r="K495" s="20"/>
     </row>
-    <row r="496" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A496" s="40">
-        <v>46143</v>
+        <v>46113</v>
       </c>
       <c r="B496" s="20"/>
       <c r="C496" s="13"/>
@@ -13047,9 +13049,9 @@
       <c r="J496" s="11"/>
       <c r="K496" s="20"/>
     </row>
-    <row r="497" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A497" s="40">
-        <v>46174</v>
+        <v>46143</v>
       </c>
       <c r="B497" s="20"/>
       <c r="C497" s="13"/>
@@ -13065,9 +13067,9 @@
       <c r="J497" s="11"/>
       <c r="K497" s="20"/>
     </row>
-    <row r="498" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A498" s="40">
-        <v>46204</v>
+        <v>46174</v>
       </c>
       <c r="B498" s="20"/>
       <c r="C498" s="13"/>
@@ -13083,8 +13085,10 @@
       <c r="J498" s="11"/>
       <c r="K498" s="20"/>
     </row>
-    <row r="499" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A499" s="40"/>
+    <row r="499" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A499" s="40">
+        <v>46204</v>
+      </c>
       <c r="B499" s="20"/>
       <c r="C499" s="13"/>
       <c r="D499" s="39"/>
@@ -13099,7 +13103,7 @@
       <c r="J499" s="11"/>
       <c r="K499" s="20"/>
     </row>
-    <row r="500" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A500" s="40"/>
       <c r="B500" s="20"/>
       <c r="C500" s="13"/>
@@ -13115,7 +13119,7 @@
       <c r="J500" s="11"/>
       <c r="K500" s="20"/>
     </row>
-    <row r="501" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A501" s="40"/>
       <c r="B501" s="20"/>
       <c r="C501" s="13"/>
@@ -13131,7 +13135,7 @@
       <c r="J501" s="11"/>
       <c r="K501" s="20"/>
     </row>
-    <row r="502" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A502" s="40"/>
       <c r="B502" s="20"/>
       <c r="C502" s="13"/>
@@ -13147,7 +13151,7 @@
       <c r="J502" s="11"/>
       <c r="K502" s="20"/>
     </row>
-    <row r="503" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A503" s="40"/>
       <c r="B503" s="20"/>
       <c r="C503" s="13"/>
@@ -13163,7 +13167,7 @@
       <c r="J503" s="11"/>
       <c r="K503" s="20"/>
     </row>
-    <row r="504" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A504" s="40"/>
       <c r="B504" s="20"/>
       <c r="C504" s="13"/>
@@ -13179,21 +13183,37 @@
       <c r="J504" s="11"/>
       <c r="K504" s="20"/>
     </row>
-    <row r="505" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A505" s="41"/>
-      <c r="B505" s="15"/>
-      <c r="C505" s="42"/>
-      <c r="D505" s="43"/>
+    <row r="505" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A505" s="40"/>
+      <c r="B505" s="20"/>
+      <c r="C505" s="13"/>
+      <c r="D505" s="39"/>
       <c r="E505" s="9"/>
-      <c r="F505" s="15"/>
-      <c r="G505" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H505" s="43"/>
+      <c r="F505" s="20"/>
+      <c r="G505" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H505" s="39"/>
       <c r="I505" s="9"/>
-      <c r="J505" s="12"/>
-      <c r="K505" s="15"/>
+      <c r="J505" s="11"/>
+      <c r="K505" s="20"/>
+    </row>
+    <row r="506" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A506" s="41"/>
+      <c r="B506" s="15"/>
+      <c r="C506" s="42"/>
+      <c r="D506" s="43"/>
+      <c r="E506" s="9"/>
+      <c r="F506" s="15"/>
+      <c r="G506" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H506" s="43"/>
+      <c r="I506" s="9"/>
+      <c r="J506" s="12"/>
+      <c r="K506" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -13210,10 +13230,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -13236,28 +13256,28 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.109375" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.88671875" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="14.88671875" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D1" s="61" t="s">
         <v>33</v>
       </c>
@@ -13270,7 +13290,7 @@
       <c r="K1" s="62"/>
       <c r="L1" s="62"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -13299,7 +13319,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="D3" s="11">
@@ -13325,17 +13345,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>324</v>
       </c>
@@ -13359,10 +13379,10 @@
       <c r="K6" s="63"/>
       <c r="L6" s="63"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="11">
         <f>SUM(Sheet1!E9,Sheet1!I9)</f>
-        <v>211.93200000000002</v>
+        <v>210.93200000000002</v>
       </c>
       <c r="C7" s="37">
         <v>1</v>
@@ -13390,7 +13410,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -13416,7 +13436,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -13442,7 +13462,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -13468,7 +13488,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -13494,7 +13514,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -13520,7 +13540,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -13546,7 +13566,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -13572,7 +13592,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -13592,7 +13612,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -13612,7 +13632,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -13632,7 +13652,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -13653,7 +13673,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -13674,7 +13694,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -13695,7 +13715,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -13716,7 +13736,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -13737,7 +13757,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -13758,7 +13778,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -13779,7 +13799,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -13800,7 +13820,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -13821,7 +13841,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -13842,7 +13862,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -13863,7 +13883,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -13884,7 +13904,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -13905,7 +13925,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -13926,7 +13946,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -13947,7 +13967,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -13968,7 +13988,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -13989,7 +14009,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -14010,7 +14030,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -14031,7 +14051,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -14052,7 +14072,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -14061,7 +14081,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -14070,7 +14090,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -14079,7 +14099,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -14088,7 +14108,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -14097,7 +14117,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -14106,7 +14126,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -14115,7 +14135,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -14124,7 +14144,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -14133,7 +14153,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -14142,7 +14162,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -14151,7 +14171,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -14160,7 +14180,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -14169,7 +14189,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -14178,7 +14198,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -14187,7 +14207,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -14196,7 +14216,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -14205,7 +14225,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -14214,7 +14234,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -14223,7 +14243,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -14232,7 +14252,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -14241,7 +14261,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -14250,7 +14270,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -14259,7 +14279,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -14268,7 +14288,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -14277,7 +14297,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -14286,7 +14306,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -14295,7 +14315,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -14304,7 +14324,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -14313,7 +14333,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>

--- a/REGULAR/OJT/NEW DONE/MALIGAYO, YOLANDA.xlsx
+++ b/REGULAR/OJT/NEW DONE/MALIGAYO, YOLANDA.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\OJT\NEW DONE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\OJT\NEW DONE\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D198263-8944-4590-B2CA-A903E53EEB70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,7 +24,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="609" uniqueCount="325">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="611" uniqueCount="327">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1008,12 +1009,18 @@
   </si>
   <si>
     <t>TOTAL LEAVE BALANCE</t>
+  </si>
+  <si>
+    <t>SL(4-0-0)</t>
+  </si>
+  <si>
+    <t>6/19,20,21,22/2023</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -1691,7 +1698,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -1708,25 +1715,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K506" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K506" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
-    <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
-    <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
-    <tableColumn id="3" name="EARNED" dataDxfId="8"/>
-    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="7"/>
-    <tableColumn id="5" name="BALANCE" dataDxfId="6">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="6">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="5"/>
-    <tableColumn id="7" name="EARNED " dataDxfId="4">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="5"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="4">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
-    <tableColumn id="9" name="BALANCE " dataDxfId="2">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="2">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
-    <tableColumn id="11" name="REMARKS" dataDxfId="0"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2033,34 +2040,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K506"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A446" activePane="bottomLeft"/>
+      <pane ySplit="3696" topLeftCell="A455" activePane="bottomLeft"/>
       <selection activeCell="A8" sqref="A8:K8"/>
-      <selection pane="bottomLeft" activeCell="B462" sqref="B462"/>
+      <selection pane="bottomLeft" activeCell="B463" sqref="B463"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -2081,7 +2088,7 @@
       <c r="J2" s="55"/>
       <c r="K2" s="56"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -2101,7 +2108,7 @@
       <c r="J3" s="57"/>
       <c r="K3" s="58"/>
     </row>
-    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -2123,7 +2130,7 @@
       <c r="J4" s="55"/>
       <c r="K4" s="56"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -2131,7 +2138,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -2144,7 +2151,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="53" t="s">
@@ -2161,7 +2168,7 @@
       <c r="J7" s="53"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -2196,7 +2203,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -2215,12 +2222,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>112.5</v>
+        <v>108.5</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="48" t="s">
         <v>96</v>
       </c>
@@ -2242,7 +2249,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="23">
         <v>36342</v>
       </c>
@@ -2268,7 +2275,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="23">
         <v>36373</v>
       </c>
@@ -2292,7 +2299,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="23">
         <v>36404</v>
       </c>
@@ -2318,7 +2325,7 @@
         <v>36320</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="23"/>
       <c r="B14" s="20" t="s">
         <v>116</v>
@@ -2338,7 +2345,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="23">
         <v>36434</v>
       </c>
@@ -2364,7 +2371,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="23"/>
       <c r="B16" s="20" t="s">
         <v>117</v>
@@ -2384,7 +2391,7 @@
       <c r="J16" s="11"/>
       <c r="K16" s="20"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="23">
         <v>36465</v>
       </c>
@@ -2410,7 +2417,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="23"/>
       <c r="B18" s="20" t="s">
         <v>118</v>
@@ -2427,7 +2434,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="23">
         <v>36495</v>
       </c>
@@ -2453,7 +2460,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="23"/>
       <c r="B20" s="20" t="s">
         <v>119</v>
@@ -2473,7 +2480,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="48" t="s">
         <v>114</v>
       </c>
@@ -2495,7 +2502,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="23">
         <v>36526</v>
       </c>
@@ -2521,7 +2528,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="23"/>
       <c r="B23" s="20" t="s">
         <v>124</v>
@@ -2541,7 +2548,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="23">
         <v>36557</v>
       </c>
@@ -2565,7 +2572,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="23">
         <v>36586</v>
       </c>
@@ -2591,7 +2598,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="23"/>
       <c r="B26" s="20" t="s">
         <v>126</v>
@@ -2611,7 +2618,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="23">
         <v>36617</v>
       </c>
@@ -2637,7 +2644,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="23"/>
       <c r="B28" s="20" t="s">
         <v>126</v>
@@ -2657,7 +2664,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="23">
         <v>36647</v>
       </c>
@@ -2683,7 +2690,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="23"/>
       <c r="B30" s="20" t="s">
         <v>130</v>
@@ -2703,7 +2710,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="23">
         <v>36678</v>
       </c>
@@ -2729,7 +2736,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="23"/>
       <c r="B32" s="20" t="s">
         <v>45</v>
@@ -2751,7 +2758,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="23"/>
       <c r="B33" s="20" t="s">
         <v>131</v>
@@ -2771,7 +2778,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="23">
         <v>36708</v>
       </c>
@@ -2795,7 +2802,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="23">
         <v>36739</v>
       </c>
@@ -2821,7 +2828,7 @@
         <v>36838</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="23"/>
       <c r="B36" s="20" t="s">
         <v>45</v>
@@ -2843,7 +2850,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="23"/>
       <c r="B37" s="20" t="s">
         <v>133</v>
@@ -2863,7 +2870,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="23">
         <v>36770</v>
       </c>
@@ -2889,7 +2896,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="23">
         <v>36800</v>
       </c>
@@ -2913,7 +2920,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="23">
         <v>36831</v>
       </c>
@@ -2939,7 +2946,7 @@
         <v>36717</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="23"/>
       <c r="B41" s="20" t="s">
         <v>135</v>
@@ -2959,7 +2966,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="23">
         <v>36861</v>
       </c>
@@ -2985,7 +2992,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="23"/>
       <c r="B43" s="20" t="s">
         <v>136</v>
@@ -3005,7 +3012,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="48" t="s">
         <v>113</v>
       </c>
@@ -3027,7 +3034,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="23">
         <v>36892</v>
       </c>
@@ -3051,7 +3058,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="23">
         <v>36923</v>
       </c>
@@ -3077,7 +3084,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="23">
         <v>36951</v>
       </c>
@@ -3103,7 +3110,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="23"/>
       <c r="B48" s="20" t="s">
         <v>144</v>
@@ -3123,7 +3130,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="23">
         <v>36982</v>
       </c>
@@ -3149,7 +3156,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="23"/>
       <c r="B50" s="20" t="s">
         <v>48</v>
@@ -3171,7 +3178,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="23">
         <v>37012</v>
       </c>
@@ -3195,7 +3202,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="23">
         <v>37043</v>
       </c>
@@ -3219,7 +3226,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="23">
         <v>37073</v>
       </c>
@@ -3243,7 +3250,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="23">
         <v>37104</v>
       </c>
@@ -3269,7 +3276,7 @@
         <v>37111</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="23"/>
       <c r="B55" s="20" t="s">
         <v>147</v>
@@ -3289,7 +3296,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="23">
         <v>37135</v>
       </c>
@@ -3313,7 +3320,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="23">
         <v>37165</v>
       </c>
@@ -3339,7 +3346,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="23">
         <v>37196</v>
       </c>
@@ -3365,7 +3372,7 @@
         <v>37023</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="23"/>
       <c r="B59" s="20" t="s">
         <v>149</v>
@@ -3385,7 +3392,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="23">
         <v>37226</v>
       </c>
@@ -3409,7 +3416,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="48" t="s">
         <v>112</v>
       </c>
@@ -3431,7 +3438,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="23">
         <v>37257</v>
       </c>
@@ -3455,7 +3462,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="23">
         <v>37288</v>
       </c>
@@ -3481,7 +3488,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="23"/>
       <c r="B64" s="20" t="s">
         <v>149</v>
@@ -3501,7 +3508,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="23">
         <v>37316</v>
       </c>
@@ -3525,7 +3532,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="23">
         <v>37347</v>
       </c>
@@ -3549,7 +3556,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="23">
         <v>37377</v>
       </c>
@@ -3575,7 +3582,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="23"/>
       <c r="B68" s="20" t="s">
         <v>46</v>
@@ -3597,7 +3604,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="23"/>
       <c r="B69" s="20" t="s">
         <v>158</v>
@@ -3617,7 +3624,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="23">
         <v>37408</v>
       </c>
@@ -3641,7 +3648,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="23">
         <v>37438</v>
       </c>
@@ -3667,7 +3674,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="23">
         <v>37469</v>
       </c>
@@ -3693,7 +3700,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="23">
         <v>37500</v>
       </c>
@@ -3713,7 +3720,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="23">
         <v>37530</v>
       </c>
@@ -3733,7 +3740,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="23">
         <v>37561</v>
       </c>
@@ -3753,7 +3760,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="23">
         <v>37591</v>
       </c>
@@ -3777,7 +3784,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="48" t="s">
         <v>111</v>
       </c>
@@ -3799,7 +3806,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="23">
         <v>37622</v>
       </c>
@@ -3819,7 +3826,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="23">
         <v>37653</v>
       </c>
@@ -3843,7 +3850,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="23"/>
       <c r="B80" s="20" t="s">
         <v>166</v>
@@ -3860,7 +3867,7 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="23">
         <v>37681</v>
       </c>
@@ -3884,7 +3891,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="23">
         <v>37712</v>
       </c>
@@ -3908,7 +3915,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="23">
         <v>37742</v>
       </c>
@@ -3934,7 +3941,7 @@
         <v>37746</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="23"/>
       <c r="B84" s="20" t="s">
         <v>168</v>
@@ -3954,7 +3961,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="23">
         <v>37773</v>
       </c>
@@ -3980,7 +3987,7 @@
         <v>37683</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="23"/>
       <c r="B86" s="20" t="s">
         <v>174</v>
@@ -4000,7 +4007,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="23">
         <v>37803</v>
       </c>
@@ -4024,7 +4031,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="23">
         <v>37834</v>
       </c>
@@ -4050,7 +4057,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="23"/>
       <c r="B89" s="20" t="s">
         <v>149</v>
@@ -4070,7 +4077,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="23">
         <v>37865</v>
       </c>
@@ -4096,7 +4103,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="23"/>
       <c r="B91" s="20" t="s">
         <v>45</v>
@@ -4118,7 +4125,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="23">
         <v>37895</v>
       </c>
@@ -4144,7 +4151,7 @@
         <v>37904</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="23"/>
       <c r="B93" s="20" t="s">
         <v>45</v>
@@ -4166,7 +4173,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="23"/>
       <c r="B94" s="20" t="s">
         <v>148</v>
@@ -4186,7 +4193,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="23">
         <v>37926</v>
       </c>
@@ -4212,7 +4219,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="23"/>
       <c r="B96" s="20" t="s">
         <v>45</v>
@@ -4234,7 +4241,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="23">
         <v>37956</v>
       </c>
@@ -4260,7 +4267,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="23"/>
       <c r="B98" s="20" t="s">
         <v>55</v>
@@ -4282,7 +4289,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="23"/>
       <c r="B99" s="20" t="s">
         <v>45</v>
@@ -4304,7 +4311,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="23"/>
       <c r="B100" s="20" t="s">
         <v>165</v>
@@ -4324,7 +4331,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="48" t="s">
         <v>110</v>
       </c>
@@ -4346,7 +4353,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="23">
         <v>37987</v>
       </c>
@@ -4372,7 +4379,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" s="23"/>
       <c r="B103" s="20" t="s">
         <v>116</v>
@@ -4392,7 +4399,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="23">
         <v>38018</v>
       </c>
@@ -4418,7 +4425,7 @@
         <v>38140</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" s="23"/>
       <c r="B105" s="20" t="s">
         <v>45</v>
@@ -4440,7 +4447,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="23"/>
       <c r="B106" s="20" t="s">
         <v>116</v>
@@ -4460,7 +4467,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="23">
         <v>38047</v>
       </c>
@@ -4484,7 +4491,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="23"/>
       <c r="B108" s="20" t="s">
         <v>183</v>
@@ -4504,7 +4511,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="23">
         <v>38078</v>
       </c>
@@ -4528,7 +4535,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="23">
         <v>38108</v>
       </c>
@@ -4554,7 +4561,7 @@
         <v>38051</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" s="23"/>
       <c r="B111" s="20" t="s">
         <v>185</v>
@@ -4574,7 +4581,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" s="23">
         <v>38139</v>
       </c>
@@ -4600,7 +4607,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" s="23"/>
       <c r="B113" s="20" t="s">
         <v>186</v>
@@ -4620,7 +4627,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" s="23">
         <v>38169</v>
       </c>
@@ -4644,7 +4651,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" s="23">
         <v>38200</v>
       </c>
@@ -4670,7 +4677,7 @@
         <v>38146</v>
       </c>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" s="23"/>
       <c r="B116" s="20" t="s">
         <v>192</v>
@@ -4690,7 +4697,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" s="23">
         <v>38231</v>
       </c>
@@ -4714,7 +4721,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" s="23">
         <v>38261</v>
       </c>
@@ -4738,7 +4745,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" s="23">
         <v>38292</v>
       </c>
@@ -4762,7 +4769,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120" s="23">
         <v>38322</v>
       </c>
@@ -4786,7 +4793,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121" s="23"/>
       <c r="B121" s="20" t="s">
         <v>196</v>
@@ -4806,7 +4813,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" s="48" t="s">
         <v>109</v>
       </c>
@@ -4828,7 +4835,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" s="23">
         <v>38353</v>
       </c>
@@ -4852,7 +4859,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124" s="23">
         <v>38384</v>
       </c>
@@ -4876,7 +4883,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125" s="23">
         <v>38412</v>
       </c>
@@ -4902,7 +4909,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126" s="23"/>
       <c r="B126" s="20" t="s">
         <v>45</v>
@@ -4924,7 +4931,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A127" s="23"/>
       <c r="B127" s="20" t="s">
         <v>63</v>
@@ -4944,7 +4951,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128" s="23"/>
       <c r="B128" s="20" t="s">
         <v>196</v>
@@ -4964,7 +4971,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A129" s="23">
         <v>38443</v>
       </c>
@@ -4988,7 +4995,7 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A130" s="23">
         <v>38473</v>
       </c>
@@ -5012,7 +5019,7 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A131" s="23">
         <v>38504</v>
       </c>
@@ -5038,7 +5045,7 @@
         <v>38631</v>
       </c>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A132" s="23"/>
       <c r="B132" s="20" t="s">
         <v>200</v>
@@ -5058,7 +5065,7 @@
       <c r="J132" s="11"/>
       <c r="K132" s="49"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A133" s="23">
         <v>38534</v>
       </c>
@@ -5082,7 +5089,7 @@
       <c r="J133" s="11"/>
       <c r="K133" s="20"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A134" s="23">
         <v>38565</v>
       </c>
@@ -5108,7 +5115,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A135" s="23"/>
       <c r="B135" s="20" t="s">
         <v>149</v>
@@ -5128,7 +5135,7 @@
       <c r="J135" s="11"/>
       <c r="K135" s="20"/>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A136" s="23">
         <v>38596</v>
       </c>
@@ -5148,7 +5155,7 @@
       <c r="J136" s="11"/>
       <c r="K136" s="20"/>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A137" s="23">
         <v>38626</v>
       </c>
@@ -5174,7 +5181,7 @@
         <v>38452</v>
       </c>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A138" s="23"/>
       <c r="B138" s="20" t="s">
         <v>149</v>
@@ -5194,7 +5201,7 @@
       <c r="J138" s="11"/>
       <c r="K138" s="20"/>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A139" s="23">
         <v>38657</v>
       </c>
@@ -5218,7 +5225,7 @@
       <c r="J139" s="11"/>
       <c r="K139" s="20"/>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A140" s="23">
         <v>38687</v>
       </c>
@@ -5242,7 +5249,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A141" s="23"/>
       <c r="B141" s="20" t="s">
         <v>157</v>
@@ -5259,7 +5266,7 @@
       <c r="J141" s="11"/>
       <c r="K141" s="20"/>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A142" s="48" t="s">
         <v>107</v>
       </c>
@@ -5281,7 +5288,7 @@
       <c r="J142" s="11"/>
       <c r="K142" s="20"/>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A143" s="23">
         <v>38718</v>
       </c>
@@ -5305,7 +5312,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A144" s="23"/>
       <c r="B144" s="20" t="s">
         <v>206</v>
@@ -5325,7 +5332,7 @@
       <c r="J144" s="11"/>
       <c r="K144" s="20"/>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A145" s="23">
         <v>38749</v>
       </c>
@@ -5351,7 +5358,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A146" s="23"/>
       <c r="B146" s="20" t="s">
         <v>177</v>
@@ -5371,7 +5378,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A147" s="23">
         <v>38777</v>
       </c>
@@ -5397,7 +5404,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A148" s="23"/>
       <c r="B148" s="20" t="s">
         <v>45</v>
@@ -5419,7 +5426,7 @@
         <v>38901</v>
       </c>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A149" s="23"/>
       <c r="B149" s="20" t="s">
         <v>63</v>
@@ -5439,7 +5446,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A150" s="23"/>
       <c r="B150" s="20" t="s">
         <v>208</v>
@@ -5459,7 +5466,7 @@
       <c r="J150" s="11"/>
       <c r="K150" s="20"/>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A151" s="23">
         <v>38808</v>
       </c>
@@ -5483,7 +5490,7 @@
       <c r="J151" s="11"/>
       <c r="K151" s="20"/>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A152" s="23"/>
       <c r="B152" s="20" t="s">
         <v>63</v>
@@ -5503,7 +5510,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A153" s="23">
         <v>38838</v>
       </c>
@@ -5527,7 +5534,7 @@
       <c r="J153" s="11"/>
       <c r="K153" s="20"/>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A154" s="23">
         <v>38869</v>
       </c>
@@ -5551,7 +5558,7 @@
       <c r="J154" s="11"/>
       <c r="K154" s="20"/>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A155" s="23">
         <v>38899</v>
       </c>
@@ -5575,7 +5582,7 @@
       <c r="J155" s="11"/>
       <c r="K155" s="20"/>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A156" s="23">
         <v>38930</v>
       </c>
@@ -5599,7 +5606,7 @@
       <c r="J156" s="11"/>
       <c r="K156" s="20"/>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A157" s="23">
         <v>38961</v>
       </c>
@@ -5623,7 +5630,7 @@
       <c r="J157" s="11"/>
       <c r="K157" s="20"/>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A158" s="23">
         <v>38991</v>
       </c>
@@ -5647,7 +5654,7 @@
       <c r="J158" s="11"/>
       <c r="K158" s="20"/>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A159" s="23">
         <v>39022</v>
       </c>
@@ -5673,7 +5680,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A160" s="23">
         <v>39052</v>
       </c>
@@ -5699,7 +5706,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A161" s="23"/>
       <c r="B161" s="20" t="s">
         <v>219</v>
@@ -5719,7 +5726,7 @@
       <c r="J161" s="11"/>
       <c r="K161" s="20"/>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A162" s="48" t="s">
         <v>108</v>
       </c>
@@ -5741,7 +5748,7 @@
       <c r="J162" s="11"/>
       <c r="K162" s="20"/>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A163" s="23">
         <v>39083</v>
       </c>
@@ -5765,7 +5772,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A164" s="23"/>
       <c r="B164" s="20" t="s">
         <v>222</v>
@@ -5785,7 +5792,7 @@
       <c r="J164" s="11"/>
       <c r="K164" s="20"/>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A165" s="23">
         <v>39114</v>
       </c>
@@ -5811,7 +5818,7 @@
         <v>39418</v>
       </c>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A166" s="23"/>
       <c r="B166" s="20" t="s">
         <v>58</v>
@@ -5833,7 +5840,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A167" s="23"/>
       <c r="B167" s="20" t="s">
         <v>149</v>
@@ -5853,7 +5860,7 @@
       <c r="J167" s="11"/>
       <c r="K167" s="20"/>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A168" s="23">
         <v>39142</v>
       </c>
@@ -5877,7 +5884,7 @@
       <c r="J168" s="11"/>
       <c r="K168" s="20"/>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A169" s="23">
         <v>39173</v>
       </c>
@@ -5903,7 +5910,7 @@
         <v>39117</v>
       </c>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A170" s="23"/>
       <c r="B170" s="20" t="s">
         <v>63</v>
@@ -5923,7 +5930,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A171" s="23"/>
       <c r="B171" s="20" t="s">
         <v>46</v>
@@ -5945,7 +5952,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A172" s="23">
         <v>39203</v>
       </c>
@@ -5969,7 +5976,7 @@
       <c r="J172" s="11"/>
       <c r="K172" s="20"/>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A173" s="23">
         <v>39234</v>
       </c>
@@ -5995,7 +6002,7 @@
         <v>39239</v>
       </c>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A174" s="23"/>
       <c r="B174" s="20" t="s">
         <v>167</v>
@@ -6015,7 +6022,7 @@
       <c r="J174" s="11"/>
       <c r="K174" s="20"/>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A175" s="23">
         <v>39264</v>
       </c>
@@ -6041,7 +6048,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A176" s="23"/>
       <c r="B176" s="20" t="s">
         <v>228</v>
@@ -6058,7 +6065,7 @@
       <c r="J176" s="11"/>
       <c r="K176" s="20"/>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A177" s="23">
         <v>39295</v>
       </c>
@@ -6082,7 +6089,7 @@
       <c r="J177" s="11"/>
       <c r="K177" s="20"/>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A178" s="23">
         <v>39326</v>
       </c>
@@ -6108,7 +6115,7 @@
         <v>39272</v>
       </c>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A179" s="23"/>
       <c r="B179" s="20" t="s">
         <v>45</v>
@@ -6130,7 +6137,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A180" s="23"/>
       <c r="B180" s="20" t="s">
         <v>186</v>
@@ -6150,7 +6157,7 @@
       <c r="J180" s="11"/>
       <c r="K180" s="20"/>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A181" s="23">
         <v>39356</v>
       </c>
@@ -6174,7 +6181,7 @@
       <c r="J181" s="11"/>
       <c r="K181" s="20"/>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A182" s="23"/>
       <c r="B182" s="20" t="s">
         <v>226</v>
@@ -6194,7 +6201,7 @@
       <c r="J182" s="11"/>
       <c r="K182" s="20"/>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A183" s="23">
         <v>39387</v>
       </c>
@@ -6220,7 +6227,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A184" s="23"/>
       <c r="B184" s="20" t="s">
         <v>197</v>
@@ -6240,7 +6247,7 @@
       <c r="J184" s="11"/>
       <c r="K184" s="20"/>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A185" s="23">
         <v>39417</v>
       </c>
@@ -6264,7 +6271,7 @@
       <c r="J185" s="11"/>
       <c r="K185" s="20"/>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A186" s="48" t="s">
         <v>106</v>
       </c>
@@ -6286,7 +6293,7 @@
       <c r="J186" s="11"/>
       <c r="K186" s="20"/>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A187" s="23">
         <v>39448</v>
       </c>
@@ -6310,7 +6317,7 @@
       <c r="J187" s="11"/>
       <c r="K187" s="20"/>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A188" s="23">
         <v>39479</v>
       </c>
@@ -6334,7 +6341,7 @@
       <c r="J188" s="11"/>
       <c r="K188" s="20"/>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A189" s="23">
         <v>39508</v>
       </c>
@@ -6358,7 +6365,7 @@
       <c r="J189" s="11"/>
       <c r="K189" s="20"/>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A190" s="23">
         <v>39539</v>
       </c>
@@ -6382,7 +6389,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A191" s="23"/>
       <c r="B191" s="20" t="s">
         <v>235</v>
@@ -6402,7 +6409,7 @@
       <c r="J191" s="11"/>
       <c r="K191" s="20"/>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A192" s="23">
         <v>39569</v>
       </c>
@@ -6426,7 +6433,7 @@
       <c r="J192" s="11"/>
       <c r="K192" s="20"/>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A193" s="23">
         <v>39600</v>
       </c>
@@ -6452,7 +6459,7 @@
         <v>39727</v>
       </c>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A194" s="23"/>
       <c r="B194" s="20" t="s">
         <v>63</v>
@@ -6472,7 +6479,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A195" s="23"/>
       <c r="B195" s="20" t="s">
         <v>237</v>
@@ -6492,7 +6499,7 @@
       <c r="J195" s="11"/>
       <c r="K195" s="20"/>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A196" s="23">
         <v>39630</v>
       </c>
@@ -6518,7 +6525,7 @@
         <v>39759</v>
       </c>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A197" s="23"/>
       <c r="B197" s="20" t="s">
         <v>236</v>
@@ -6538,7 +6545,7 @@
       <c r="J197" s="11"/>
       <c r="K197" s="20"/>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A198" s="23">
         <v>39661</v>
       </c>
@@ -6564,7 +6571,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A199" s="23"/>
       <c r="B199" s="20" t="s">
         <v>45</v>
@@ -6586,7 +6593,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A200" s="23"/>
       <c r="B200" s="20" t="s">
         <v>238</v>
@@ -6606,7 +6613,7 @@
       <c r="J200" s="11"/>
       <c r="K200" s="20"/>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A201" s="23">
         <v>39692</v>
       </c>
@@ -6630,7 +6637,7 @@
       <c r="J201" s="11"/>
       <c r="K201" s="20"/>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A202" s="23"/>
       <c r="B202" s="20" t="s">
         <v>244</v>
@@ -6650,7 +6657,7 @@
       <c r="J202" s="11"/>
       <c r="K202" s="20"/>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A203" s="23">
         <v>39722</v>
       </c>
@@ -6676,7 +6683,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A204" s="23"/>
       <c r="B204" s="20" t="s">
         <v>240</v>
@@ -6698,7 +6705,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A205" s="23"/>
       <c r="B205" s="20" t="s">
         <v>236</v>
@@ -6718,7 +6725,7 @@
       <c r="J205" s="11"/>
       <c r="K205" s="20"/>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A206" s="23">
         <v>39753</v>
       </c>
@@ -6744,7 +6751,7 @@
         <v>39579</v>
       </c>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A207" s="23"/>
       <c r="B207" s="20" t="s">
         <v>251</v>
@@ -6764,7 +6771,7 @@
       <c r="J207" s="11"/>
       <c r="K207" s="49"/>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A208" s="23">
         <v>39783</v>
       </c>
@@ -6788,7 +6795,7 @@
       <c r="J208" s="11"/>
       <c r="K208" s="20"/>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A209" s="48" t="s">
         <v>105</v>
       </c>
@@ -6810,7 +6817,7 @@
       <c r="J209" s="11"/>
       <c r="K209" s="20"/>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A210" s="23">
         <v>39814</v>
       </c>
@@ -6834,7 +6841,7 @@
       <c r="J210" s="11"/>
       <c r="K210" s="20"/>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A211" s="23">
         <v>39845</v>
       </c>
@@ -6858,7 +6865,7 @@
       <c r="J211" s="11"/>
       <c r="K211" s="20"/>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A212" s="23">
         <v>39873</v>
       </c>
@@ -6882,7 +6889,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A213" s="23"/>
       <c r="B213" s="20" t="s">
         <v>214</v>
@@ -6902,7 +6909,7 @@
       <c r="J213" s="11"/>
       <c r="K213" s="20"/>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A214" s="23">
         <v>39904</v>
       </c>
@@ -6926,7 +6933,7 @@
       <c r="J214" s="11"/>
       <c r="K214" s="20"/>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A215" s="23">
         <v>39934</v>
       </c>
@@ -6950,7 +6957,7 @@
       <c r="J215" s="11"/>
       <c r="K215" s="20"/>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A216" s="23">
         <v>39965</v>
       </c>
@@ -6974,7 +6981,7 @@
       <c r="J216" s="11"/>
       <c r="K216" s="20"/>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A217" s="23">
         <v>39995</v>
       </c>
@@ -6998,7 +7005,7 @@
       <c r="J217" s="11"/>
       <c r="K217" s="20"/>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A218" s="23">
         <v>40026</v>
       </c>
@@ -7024,7 +7031,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A219" s="23"/>
       <c r="B219" s="20" t="s">
         <v>257</v>
@@ -7044,7 +7051,7 @@
       <c r="J219" s="11"/>
       <c r="K219" s="20"/>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A220" s="23">
         <v>40057</v>
       </c>
@@ -7068,7 +7075,7 @@
       <c r="J220" s="11"/>
       <c r="K220" s="20"/>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A221" s="23">
         <v>40087</v>
       </c>
@@ -7092,7 +7099,7 @@
       <c r="J221" s="11"/>
       <c r="K221" s="20"/>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A222" s="23">
         <v>40118</v>
       </c>
@@ -7118,7 +7125,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A223" s="23"/>
       <c r="B223" s="20" t="s">
         <v>260</v>
@@ -7138,7 +7145,7 @@
       <c r="J223" s="11"/>
       <c r="K223" s="20"/>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A224" s="23">
         <v>40148</v>
       </c>
@@ -7164,7 +7171,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A225" s="23"/>
       <c r="B225" s="20" t="s">
         <v>217</v>
@@ -7186,7 +7193,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A226" s="23"/>
       <c r="B226" s="20" t="s">
         <v>261</v>
@@ -7206,7 +7213,7 @@
       <c r="J226" s="11"/>
       <c r="K226" s="20"/>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A227" s="48" t="s">
         <v>104</v>
       </c>
@@ -7228,7 +7235,7 @@
       <c r="J227" s="11"/>
       <c r="K227" s="20"/>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A228" s="23">
         <v>40179</v>
       </c>
@@ -7254,7 +7261,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A229" s="23"/>
       <c r="B229" s="20" t="s">
         <v>268</v>
@@ -7274,7 +7281,7 @@
       <c r="J229" s="11"/>
       <c r="K229" s="20"/>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A230" s="23">
         <v>40210</v>
       </c>
@@ -7298,7 +7305,7 @@
       <c r="J230" s="11"/>
       <c r="K230" s="20"/>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A231" s="23">
         <v>40238</v>
       </c>
@@ -7322,7 +7329,7 @@
       <c r="J231" s="11"/>
       <c r="K231" s="20"/>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A232" s="23">
         <v>40269</v>
       </c>
@@ -7342,7 +7349,7 @@
       <c r="J232" s="11"/>
       <c r="K232" s="20"/>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A233" s="23">
         <v>40299</v>
       </c>
@@ -7368,7 +7375,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A234" s="23">
         <v>40330</v>
       </c>
@@ -7388,7 +7395,7 @@
       <c r="J234" s="11"/>
       <c r="K234" s="20"/>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A235" s="23">
         <v>40360</v>
       </c>
@@ -7414,7 +7421,7 @@
         <v>40336</v>
       </c>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A236" s="23"/>
       <c r="B236" s="20" t="s">
         <v>270</v>
@@ -7436,7 +7443,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A237" s="23">
         <v>40391</v>
       </c>
@@ -7462,7 +7469,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A238" s="23">
         <v>40422</v>
       </c>
@@ -7488,7 +7495,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A239" s="23">
         <v>40452</v>
       </c>
@@ -7508,7 +7515,7 @@
       <c r="J239" s="11"/>
       <c r="K239" s="20"/>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A240" s="23">
         <v>40483</v>
       </c>
@@ -7534,7 +7541,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A241" s="23">
         <v>40513</v>
       </c>
@@ -7554,7 +7561,7 @@
       <c r="J241" s="11"/>
       <c r="K241" s="20"/>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A242" s="48" t="s">
         <v>103</v>
       </c>
@@ -7576,7 +7583,7 @@
       <c r="J242" s="11"/>
       <c r="K242" s="20"/>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A243" s="23">
         <v>40544</v>
       </c>
@@ -7596,7 +7603,7 @@
       <c r="J243" s="11"/>
       <c r="K243" s="20"/>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A244" s="23">
         <v>40575</v>
       </c>
@@ -7616,7 +7623,7 @@
       <c r="J244" s="11"/>
       <c r="K244" s="20"/>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A245" s="23">
         <v>40603</v>
       </c>
@@ -7640,7 +7647,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A246" s="23">
         <v>40634</v>
       </c>
@@ -7660,7 +7667,7 @@
       <c r="J246" s="11"/>
       <c r="K246" s="20"/>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A247" s="23">
         <v>40664</v>
       </c>
@@ -7680,7 +7687,7 @@
       <c r="J247" s="11"/>
       <c r="K247" s="20"/>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A248" s="23">
         <v>40695</v>
       </c>
@@ -7704,7 +7711,7 @@
       <c r="J248" s="11"/>
       <c r="K248" s="20"/>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A249" s="23">
         <v>40725</v>
       </c>
@@ -7724,7 +7731,7 @@
       <c r="J249" s="11"/>
       <c r="K249" s="20"/>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A250" s="23">
         <v>40756</v>
       </c>
@@ -7744,7 +7751,7 @@
       <c r="J250" s="11"/>
       <c r="K250" s="20"/>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A251" s="23">
         <v>40787</v>
       </c>
@@ -7764,7 +7771,7 @@
       <c r="J251" s="11"/>
       <c r="K251" s="20"/>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A252" s="23">
         <v>40817</v>
       </c>
@@ -7790,7 +7797,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A253" s="23">
         <v>40848</v>
       </c>
@@ -7810,7 +7817,7 @@
       <c r="J253" s="11"/>
       <c r="K253" s="20"/>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A254" s="23">
         <v>40878</v>
       </c>
@@ -7836,7 +7843,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A255" s="23"/>
       <c r="B255" s="20" t="s">
         <v>78</v>
@@ -7853,7 +7860,7 @@
       <c r="J255" s="11"/>
       <c r="K255" s="20"/>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A256" s="48" t="s">
         <v>102</v>
       </c>
@@ -7875,7 +7882,7 @@
       <c r="J256" s="11"/>
       <c r="K256" s="20"/>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A257" s="23">
         <v>40909</v>
       </c>
@@ -7895,7 +7902,7 @@
       <c r="J257" s="11"/>
       <c r="K257" s="20"/>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A258" s="23">
         <v>40940</v>
       </c>
@@ -7921,7 +7928,7 @@
         <v>41184</v>
       </c>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A259" s="23">
         <v>40969</v>
       </c>
@@ -7941,7 +7948,7 @@
       <c r="J259" s="11"/>
       <c r="K259" s="20"/>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A260" s="23">
         <v>41000</v>
       </c>
@@ -7961,7 +7968,7 @@
       <c r="J260" s="11"/>
       <c r="K260" s="20"/>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A261" s="23">
         <v>41030</v>
       </c>
@@ -7987,7 +7994,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A262" s="23">
         <v>41061</v>
       </c>
@@ -8007,7 +8014,7 @@
       <c r="J262" s="11"/>
       <c r="K262" s="20"/>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A263" s="23">
         <v>41091</v>
       </c>
@@ -8027,7 +8034,7 @@
       <c r="J263" s="11"/>
       <c r="K263" s="20"/>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A264" s="23">
         <v>41122</v>
       </c>
@@ -8047,7 +8054,7 @@
       <c r="J264" s="11"/>
       <c r="K264" s="20"/>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A265" s="23">
         <v>41153</v>
       </c>
@@ -8067,7 +8074,7 @@
       <c r="J265" s="11"/>
       <c r="K265" s="20"/>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A266" s="23">
         <v>41183</v>
       </c>
@@ -8087,7 +8094,7 @@
       <c r="J266" s="11"/>
       <c r="K266" s="20"/>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A267" s="23">
         <v>41214</v>
       </c>
@@ -8113,7 +8120,7 @@
         <v>40980</v>
       </c>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A268" s="23"/>
       <c r="B268" s="20" t="s">
         <v>78</v>
@@ -8132,7 +8139,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A269" s="23">
         <v>41244</v>
       </c>
@@ -8158,7 +8165,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A270" s="48" t="s">
         <v>101</v>
       </c>
@@ -8180,7 +8187,7 @@
       <c r="J270" s="11"/>
       <c r="K270" s="20"/>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A271" s="23">
         <v>41275</v>
       </c>
@@ -8200,7 +8207,7 @@
       <c r="J271" s="11"/>
       <c r="K271" s="20"/>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A272" s="23">
         <v>41306</v>
       </c>
@@ -8220,7 +8227,7 @@
       <c r="J272" s="11"/>
       <c r="K272" s="20"/>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A273" s="23">
         <v>41334</v>
       </c>
@@ -8240,7 +8247,7 @@
       <c r="J273" s="11"/>
       <c r="K273" s="20"/>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A274" s="23">
         <v>41365</v>
       </c>
@@ -8260,7 +8267,7 @@
       <c r="J274" s="11"/>
       <c r="K274" s="20"/>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A275" s="23">
         <v>41395</v>
       </c>
@@ -8280,7 +8287,7 @@
       <c r="J275" s="11"/>
       <c r="K275" s="20"/>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A276" s="23">
         <v>41426</v>
       </c>
@@ -8300,7 +8307,7 @@
       <c r="J276" s="11"/>
       <c r="K276" s="20"/>
     </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A277" s="23">
         <v>41456</v>
       </c>
@@ -8326,7 +8333,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A278" s="23">
         <v>41487</v>
       </c>
@@ -8346,7 +8353,7 @@
       <c r="J278" s="11"/>
       <c r="K278" s="20"/>
     </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A279" s="23">
         <v>41518</v>
       </c>
@@ -8366,7 +8373,7 @@
       <c r="J279" s="11"/>
       <c r="K279" s="20"/>
     </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A280" s="23">
         <v>41548</v>
       </c>
@@ -8392,7 +8399,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A281" s="23">
         <v>41579</v>
       </c>
@@ -8412,7 +8419,7 @@
       <c r="J281" s="11"/>
       <c r="K281" s="20"/>
     </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A282" s="23">
         <v>41609</v>
       </c>
@@ -8438,7 +8445,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A283" s="23"/>
       <c r="B283" s="20" t="s">
         <v>227</v>
@@ -8457,7 +8464,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A284" s="48" t="s">
         <v>100</v>
       </c>
@@ -8479,7 +8486,7 @@
       <c r="J284" s="11"/>
       <c r="K284" s="20"/>
     </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A285" s="23">
         <v>41640</v>
       </c>
@@ -8503,7 +8510,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A286" s="23"/>
       <c r="B286" s="20" t="s">
         <v>290</v>
@@ -8525,7 +8532,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A287" s="23">
         <v>41671</v>
       </c>
@@ -8545,7 +8552,7 @@
       <c r="J287" s="11"/>
       <c r="K287" s="20"/>
     </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A288" s="23">
         <v>41699</v>
       </c>
@@ -8565,7 +8572,7 @@
       <c r="J288" s="11"/>
       <c r="K288" s="20"/>
     </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A289" s="23">
         <v>41730</v>
       </c>
@@ -8591,7 +8598,7 @@
         <v>41733</v>
       </c>
     </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A290" s="23"/>
       <c r="B290" s="20" t="s">
         <v>63</v>
@@ -8611,7 +8618,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A291" s="23">
         <v>41760</v>
       </c>
@@ -8631,7 +8638,7 @@
       <c r="J291" s="11"/>
       <c r="K291" s="20"/>
     </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A292" s="23">
         <v>41791</v>
       </c>
@@ -8651,7 +8658,7 @@
       <c r="J292" s="11"/>
       <c r="K292" s="20"/>
     </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A293" s="23">
         <v>41821</v>
       </c>
@@ -8677,7 +8684,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A294" s="23">
         <v>41852</v>
       </c>
@@ -8697,7 +8704,7 @@
       <c r="J294" s="11"/>
       <c r="K294" s="20"/>
     </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A295" s="23">
         <v>41883</v>
       </c>
@@ -8717,7 +8724,7 @@
       <c r="J295" s="11"/>
       <c r="K295" s="20"/>
     </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A296" s="23">
         <v>41913</v>
       </c>
@@ -8737,7 +8744,7 @@
       <c r="J296" s="11"/>
       <c r="K296" s="20"/>
     </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A297" s="23">
         <v>41944</v>
       </c>
@@ -8757,7 +8764,7 @@
       <c r="J297" s="11"/>
       <c r="K297" s="20"/>
     </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A298" s="23">
         <v>41974</v>
       </c>
@@ -8783,7 +8790,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A299" s="23"/>
       <c r="B299" s="20" t="s">
         <v>217</v>
@@ -8805,7 +8812,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A300" s="48" t="s">
         <v>99</v>
       </c>
@@ -8827,7 +8834,7 @@
       <c r="J300" s="11"/>
       <c r="K300" s="20"/>
     </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A301" s="23">
         <v>42005</v>
       </c>
@@ -8847,7 +8854,7 @@
       <c r="J301" s="11"/>
       <c r="K301" s="20"/>
     </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A302" s="23">
         <v>42036</v>
       </c>
@@ -8867,7 +8874,7 @@
       <c r="J302" s="11"/>
       <c r="K302" s="20"/>
     </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A303" s="23">
         <v>42064</v>
       </c>
@@ -8893,7 +8900,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A304" s="23"/>
       <c r="B304" s="20" t="s">
         <v>267</v>
@@ -8915,7 +8922,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A305" s="23">
         <v>42095</v>
       </c>
@@ -8935,7 +8942,7 @@
       <c r="J305" s="11"/>
       <c r="K305" s="20"/>
     </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A306" s="23">
         <v>42125</v>
       </c>
@@ -8961,7 +8968,7 @@
         <v>42221</v>
       </c>
     </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A307" s="23"/>
       <c r="B307" s="20" t="s">
         <v>65</v>
@@ -8983,7 +8990,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A308" s="23">
         <v>42156</v>
       </c>
@@ -9003,7 +9010,7 @@
       <c r="J308" s="11"/>
       <c r="K308" s="20"/>
     </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A309" s="23">
         <v>42186</v>
       </c>
@@ -9023,7 +9030,7 @@
       <c r="J309" s="11"/>
       <c r="K309" s="20"/>
     </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A310" s="23">
         <v>42217</v>
       </c>
@@ -9043,7 +9050,7 @@
       <c r="J310" s="11"/>
       <c r="K310" s="20"/>
     </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A311" s="23">
         <v>42248</v>
       </c>
@@ -9069,7 +9076,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A312" s="23">
         <v>42278</v>
       </c>
@@ -9093,7 +9100,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A313" s="23">
         <v>42309</v>
       </c>
@@ -9119,7 +9126,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A314" s="23">
         <v>42339</v>
       </c>
@@ -9139,7 +9146,7 @@
       <c r="J314" s="11"/>
       <c r="K314" s="20"/>
     </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A315" s="48" t="s">
         <v>98</v>
       </c>
@@ -9161,7 +9168,7 @@
       <c r="J315" s="11"/>
       <c r="K315" s="20"/>
     </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A316" s="23">
         <v>42370</v>
       </c>
@@ -9187,7 +9194,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A317" s="23">
         <v>42401</v>
       </c>
@@ -9207,7 +9214,7 @@
       <c r="J317" s="11"/>
       <c r="K317" s="20"/>
     </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A318" s="23">
         <v>42430</v>
       </c>
@@ -9233,7 +9240,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A319" s="23"/>
       <c r="B319" s="20" t="s">
         <v>177</v>
@@ -9253,7 +9260,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A320" s="23">
         <v>42461</v>
       </c>
@@ -9273,7 +9280,7 @@
       <c r="J320" s="11"/>
       <c r="K320" s="20"/>
     </row>
-    <row r="321" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A321" s="23">
         <v>42491</v>
       </c>
@@ -9299,7 +9306,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="322" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A322" s="23">
         <v>42522</v>
       </c>
@@ -9325,7 +9332,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A323" s="23"/>
       <c r="B323" s="20" t="s">
         <v>198</v>
@@ -9347,7 +9354,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="324" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A324" s="23">
         <v>42552</v>
       </c>
@@ -9367,7 +9374,7 @@
       <c r="J324" s="11"/>
       <c r="K324" s="20"/>
     </row>
-    <row r="325" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A325" s="23">
         <v>42583</v>
       </c>
@@ -9391,7 +9398,7 @@
       <c r="J325" s="11"/>
       <c r="K325" s="20"/>
     </row>
-    <row r="326" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A326" s="23"/>
       <c r="B326" s="20" t="s">
         <v>49</v>
@@ -9411,7 +9418,7 @@
       <c r="J326" s="11"/>
       <c r="K326" s="20"/>
     </row>
-    <row r="327" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A327" s="23">
         <v>42614</v>
       </c>
@@ -9431,7 +9438,7 @@
       <c r="J327" s="11"/>
       <c r="K327" s="20"/>
     </row>
-    <row r="328" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A328" s="23">
         <v>42644</v>
       </c>
@@ -9451,7 +9458,7 @@
       <c r="J328" s="11"/>
       <c r="K328" s="20"/>
     </row>
-    <row r="329" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A329" s="23">
         <v>42675</v>
       </c>
@@ -9471,7 +9478,7 @@
       <c r="J329" s="11"/>
       <c r="K329" s="20"/>
     </row>
-    <row r="330" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A330" s="23">
         <v>42705</v>
       </c>
@@ -9497,7 +9504,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="331" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A331" s="48" t="s">
         <v>97</v>
       </c>
@@ -9519,7 +9526,7 @@
       <c r="J331" s="11"/>
       <c r="K331" s="20"/>
     </row>
-    <row r="332" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A332" s="23">
         <v>42736</v>
       </c>
@@ -9545,7 +9552,7 @@
         <v>42768</v>
       </c>
     </row>
-    <row r="333" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A333" s="23">
         <v>42767</v>
       </c>
@@ -9565,7 +9572,7 @@
       <c r="J333" s="11"/>
       <c r="K333" s="20"/>
     </row>
-    <row r="334" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A334" s="23">
         <v>42795</v>
       </c>
@@ -9585,7 +9592,7 @@
       <c r="J334" s="11"/>
       <c r="K334" s="20"/>
     </row>
-    <row r="335" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A335" s="23">
         <v>42826</v>
       </c>
@@ -9609,7 +9616,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="336" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A336" s="23">
         <v>42856</v>
       </c>
@@ -9635,7 +9642,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="337" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A337" s="23"/>
       <c r="B337" s="20" t="s">
         <v>65</v>
@@ -9657,7 +9664,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="338" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A338" s="23"/>
       <c r="B338" s="20" t="s">
         <v>45</v>
@@ -9679,7 +9686,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="339" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A339" s="23"/>
       <c r="B339" s="20" t="s">
         <v>63</v>
@@ -9699,7 +9706,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="340" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A340" s="23"/>
       <c r="B340" s="20" t="s">
         <v>45</v>
@@ -9721,7 +9728,7 @@
         <v>42984</v>
       </c>
     </row>
-    <row r="341" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A341" s="23">
         <v>42887</v>
       </c>
@@ -9741,7 +9748,7 @@
       <c r="J341" s="11"/>
       <c r="K341" s="20"/>
     </row>
-    <row r="342" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A342" s="23">
         <v>42917</v>
       </c>
@@ -9767,7 +9774,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="343" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A343" s="23">
         <v>42948</v>
       </c>
@@ -9793,7 +9800,7 @@
         <v>42955</v>
       </c>
     </row>
-    <row r="344" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A344" s="23"/>
       <c r="B344" s="20" t="s">
         <v>45</v>
@@ -9815,7 +9822,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="345" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A345" s="23">
         <v>42979</v>
       </c>
@@ -9835,7 +9842,7 @@
       <c r="J345" s="11"/>
       <c r="K345" s="20"/>
     </row>
-    <row r="346" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A346" s="23">
         <v>43009</v>
       </c>
@@ -9863,7 +9870,7 @@
         <v>42776</v>
       </c>
     </row>
-    <row r="347" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A347" s="23"/>
       <c r="B347" s="20" t="s">
         <v>65</v>
@@ -9885,7 +9892,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="348" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A348" s="23">
         <v>43040</v>
       </c>
@@ -9911,7 +9918,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="349" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A349" s="23"/>
       <c r="B349" s="20" t="s">
         <v>93</v>
@@ -9933,7 +9940,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="350" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A350" s="23">
         <v>43070</v>
       </c>
@@ -9959,7 +9966,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="351" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A351" s="48" t="s">
         <v>44</v>
       </c>
@@ -9981,7 +9988,7 @@
       <c r="J351" s="11"/>
       <c r="K351" s="20"/>
     </row>
-    <row r="352" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A352" s="40">
         <v>43101</v>
       </c>
@@ -10007,7 +10014,7 @@
         <v>43118</v>
       </c>
     </row>
-    <row r="353" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A353" s="40"/>
       <c r="B353" s="20" t="s">
         <v>46</v>
@@ -10024,7 +10031,7 @@
       <c r="J353" s="11"/>
       <c r="K353" s="20"/>
     </row>
-    <row r="354" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A354" s="40">
         <v>43132</v>
       </c>
@@ -10050,7 +10057,7 @@
         <v>43145</v>
       </c>
     </row>
-    <row r="355" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A355" s="40">
         <v>43160</v>
       </c>
@@ -10070,7 +10077,7 @@
       <c r="J355" s="11"/>
       <c r="K355" s="20"/>
     </row>
-    <row r="356" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A356" s="40">
         <v>43191</v>
       </c>
@@ -10096,7 +10103,7 @@
         <v>43176</v>
       </c>
     </row>
-    <row r="357" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A357" s="40"/>
       <c r="B357" s="20" t="s">
         <v>47</v>
@@ -10115,7 +10122,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="358" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A358" s="40"/>
       <c r="B358" s="20" t="s">
         <v>45</v>
@@ -10134,7 +10141,7 @@
         <v>43220</v>
       </c>
     </row>
-    <row r="359" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A359" s="40">
         <v>43221</v>
       </c>
@@ -10154,7 +10161,7 @@
       <c r="J359" s="11"/>
       <c r="K359" s="20"/>
     </row>
-    <row r="360" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A360" s="40">
         <v>43252</v>
       </c>
@@ -10180,7 +10187,7 @@
         <v>43257</v>
       </c>
     </row>
-    <row r="361" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A361" s="40"/>
       <c r="B361" s="20" t="s">
         <v>48</v>
@@ -10199,7 +10206,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="362" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A362" s="40"/>
       <c r="B362" s="20" t="s">
         <v>45</v>
@@ -10218,7 +10225,7 @@
         <v>43272</v>
       </c>
     </row>
-    <row r="363" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A363" s="40"/>
       <c r="B363" s="20" t="s">
         <v>49</v>
@@ -10237,7 +10244,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="364" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A364" s="40"/>
       <c r="B364" s="20" t="s">
         <v>48</v>
@@ -10256,7 +10263,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="365" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A365" s="40">
         <v>43282</v>
       </c>
@@ -10282,7 +10289,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="366" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A366" s="40"/>
       <c r="B366" s="20" t="s">
         <v>55</v>
@@ -10301,7 +10308,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="367" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A367" s="40">
         <v>43313</v>
       </c>
@@ -10327,7 +10334,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="368" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A368" s="40">
         <v>43344</v>
       </c>
@@ -10347,7 +10354,7 @@
       <c r="J368" s="11"/>
       <c r="K368" s="20"/>
     </row>
-    <row r="369" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A369" s="40">
         <v>43374</v>
       </c>
@@ -10373,7 +10380,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="370" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A370" s="40">
         <v>43405</v>
       </c>
@@ -10399,7 +10406,7 @@
         <v>43413</v>
       </c>
     </row>
-    <row r="371" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A371" s="40"/>
       <c r="B371" s="20" t="s">
         <v>45</v>
@@ -10418,7 +10425,7 @@
         <v>43427</v>
       </c>
     </row>
-    <row r="372" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A372" s="40">
         <v>43435</v>
       </c>
@@ -10438,7 +10445,7 @@
       <c r="J372" s="11"/>
       <c r="K372" s="20"/>
     </row>
-    <row r="373" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A373" s="48" t="s">
         <v>61</v>
       </c>
@@ -10456,7 +10463,7 @@
       <c r="J373" s="11"/>
       <c r="K373" s="20"/>
     </row>
-    <row r="374" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A374" s="40">
         <v>43466</v>
       </c>
@@ -10482,7 +10489,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="375" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A375" s="40">
         <v>43497</v>
       </c>
@@ -10502,7 +10509,7 @@
       <c r="J375" s="11"/>
       <c r="K375" s="20"/>
     </row>
-    <row r="376" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A376" s="40">
         <v>43525</v>
       </c>
@@ -10522,7 +10529,7 @@
       <c r="J376" s="11"/>
       <c r="K376" s="20"/>
     </row>
-    <row r="377" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A377" s="40">
         <v>43556</v>
       </c>
@@ -10548,7 +10555,7 @@
         <v>43566</v>
       </c>
     </row>
-    <row r="378" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A378" s="40"/>
       <c r="B378" s="20" t="s">
         <v>45</v>
@@ -10567,7 +10574,7 @@
         <v>43581</v>
       </c>
     </row>
-    <row r="379" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A379" s="40"/>
       <c r="B379" s="20" t="s">
         <v>63</v>
@@ -10584,7 +10591,7 @@
         <v>43580</v>
       </c>
     </row>
-    <row r="380" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A380" s="40">
         <v>43586</v>
       </c>
@@ -10610,7 +10617,7 @@
         <v>43587</v>
       </c>
     </row>
-    <row r="381" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A381" s="40">
         <v>43617</v>
       </c>
@@ -10636,7 +10643,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="382" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A382" s="40">
         <v>43647</v>
       </c>
@@ -10656,7 +10663,7 @@
       <c r="J382" s="11"/>
       <c r="K382" s="20"/>
     </row>
-    <row r="383" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A383" s="40">
         <v>43678</v>
       </c>
@@ -10682,7 +10689,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="384" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A384" s="40"/>
       <c r="B384" s="20" t="s">
         <v>48</v>
@@ -10701,7 +10708,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="385" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A385" s="40"/>
       <c r="B385" s="20" t="s">
         <v>49</v>
@@ -10720,7 +10727,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="386" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A386" s="40">
         <v>43709</v>
       </c>
@@ -10746,7 +10753,7 @@
         <v>43719</v>
       </c>
     </row>
-    <row r="387" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A387" s="40">
         <v>43739</v>
       </c>
@@ -10766,7 +10773,7 @@
       <c r="J387" s="11"/>
       <c r="K387" s="20"/>
     </row>
-    <row r="388" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A388" s="40">
         <v>43770</v>
       </c>
@@ -10786,7 +10793,7 @@
       <c r="J388" s="11"/>
       <c r="K388" s="20"/>
     </row>
-    <row r="389" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A389" s="40">
         <v>43800</v>
       </c>
@@ -10812,7 +10819,7 @@
         <v>43805</v>
       </c>
     </row>
-    <row r="390" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A390" s="40"/>
       <c r="B390" s="20" t="s">
         <v>65</v>
@@ -10834,7 +10841,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="391" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A391" s="40"/>
       <c r="B391" s="20" t="s">
         <v>55</v>
@@ -10856,7 +10863,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="392" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A392" s="48" t="s">
         <v>72</v>
       </c>
@@ -10874,7 +10881,7 @@
       <c r="J392" s="11"/>
       <c r="K392" s="20"/>
     </row>
-    <row r="393" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A393" s="40">
         <v>43831</v>
       </c>
@@ -10898,7 +10905,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="394" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A394" s="40">
         <v>43862</v>
       </c>
@@ -10924,7 +10931,7 @@
         <v>43887</v>
       </c>
     </row>
-    <row r="395" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A395" s="40"/>
       <c r="B395" s="20" t="s">
         <v>45</v>
@@ -10943,7 +10950,7 @@
         <v>43906</v>
       </c>
     </row>
-    <row r="396" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A396" s="40">
         <v>43891</v>
       </c>
@@ -10963,7 +10970,7 @@
       <c r="J396" s="11"/>
       <c r="K396" s="20"/>
     </row>
-    <row r="397" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A397" s="40">
         <v>43922</v>
       </c>
@@ -10983,7 +10990,7 @@
       <c r="J397" s="11"/>
       <c r="K397" s="20"/>
     </row>
-    <row r="398" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A398" s="40">
         <v>43952</v>
       </c>
@@ -11009,7 +11016,7 @@
         <v>43973</v>
       </c>
     </row>
-    <row r="399" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A399" s="40">
         <v>43983</v>
       </c>
@@ -11035,7 +11042,7 @@
         <v>43985</v>
       </c>
     </row>
-    <row r="400" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A400" s="40"/>
       <c r="B400" s="20" t="s">
         <v>45</v>
@@ -11054,7 +11061,7 @@
         <v>43997</v>
       </c>
     </row>
-    <row r="401" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A401" s="40">
         <v>44013</v>
       </c>
@@ -11074,7 +11081,7 @@
       <c r="J401" s="11"/>
       <c r="K401" s="20"/>
     </row>
-    <row r="402" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A402" s="40">
         <v>44044</v>
       </c>
@@ -11094,7 +11101,7 @@
       <c r="J402" s="11"/>
       <c r="K402" s="20"/>
     </row>
-    <row r="403" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A403" s="40">
         <v>44075</v>
       </c>
@@ -11120,7 +11127,7 @@
         <v>44090</v>
       </c>
     </row>
-    <row r="404" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A404" s="40">
         <v>44105</v>
       </c>
@@ -11146,7 +11153,7 @@
         <v>44116</v>
       </c>
     </row>
-    <row r="405" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A405" s="40"/>
       <c r="B405" s="20" t="s">
         <v>63</v>
@@ -11163,7 +11170,7 @@
         <v>44119</v>
       </c>
     </row>
-    <row r="406" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A406" s="40"/>
       <c r="B406" s="20" t="s">
         <v>75</v>
@@ -11182,7 +11189,7 @@
         <v>44131</v>
       </c>
     </row>
-    <row r="407" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A407" s="40">
         <v>44136</v>
       </c>
@@ -11202,7 +11209,7 @@
       <c r="J407" s="11"/>
       <c r="K407" s="20"/>
     </row>
-    <row r="408" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A408" s="40">
         <v>44166</v>
       </c>
@@ -11228,7 +11235,7 @@
         <v>44181</v>
       </c>
     </row>
-    <row r="409" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A409" s="40"/>
       <c r="B409" s="20" t="s">
         <v>65</v>
@@ -11250,7 +11257,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="410" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A410" s="40"/>
       <c r="B410" s="20" t="s">
         <v>78</v>
@@ -11267,7 +11274,7 @@
       <c r="J410" s="11"/>
       <c r="K410" s="20"/>
     </row>
-    <row r="411" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A411" s="48" t="s">
         <v>77</v>
       </c>
@@ -11285,7 +11292,7 @@
       <c r="J411" s="11"/>
       <c r="K411" s="20"/>
     </row>
-    <row r="412" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A412" s="40">
         <v>44197</v>
       </c>
@@ -11311,7 +11318,7 @@
         <v>44201</v>
       </c>
     </row>
-    <row r="413" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A413" s="40"/>
       <c r="B413" s="20" t="s">
         <v>45</v>
@@ -11330,7 +11337,7 @@
         <v>44216</v>
       </c>
     </row>
-    <row r="414" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A414" s="40">
         <v>44228</v>
       </c>
@@ -11356,7 +11363,7 @@
         <v>44243</v>
       </c>
     </row>
-    <row r="415" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A415" s="40"/>
       <c r="B415" s="20" t="s">
         <v>46</v>
@@ -11375,7 +11382,7 @@
         <v>44249</v>
       </c>
     </row>
-    <row r="416" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A416" s="40">
         <v>44256</v>
       </c>
@@ -11395,7 +11402,7 @@
       <c r="J416" s="11"/>
       <c r="K416" s="20"/>
     </row>
-    <row r="417" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A417" s="40">
         <v>44287</v>
       </c>
@@ -11421,7 +11428,7 @@
         <v>44299</v>
       </c>
     </row>
-    <row r="418" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A418" s="40"/>
       <c r="B418" s="20" t="s">
         <v>63</v>
@@ -11438,7 +11445,7 @@
         <v>44312</v>
       </c>
     </row>
-    <row r="419" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A419" s="40">
         <v>44317</v>
       </c>
@@ -11464,7 +11471,7 @@
         <v>44319</v>
       </c>
     </row>
-    <row r="420" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A420" s="40"/>
       <c r="B420" s="20" t="s">
         <v>45</v>
@@ -11483,7 +11490,7 @@
         <v>44335</v>
       </c>
     </row>
-    <row r="421" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A421" s="40">
         <v>44348</v>
       </c>
@@ -11509,7 +11516,7 @@
         <v>44354</v>
       </c>
     </row>
-    <row r="422" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A422" s="40"/>
       <c r="B422" s="20" t="s">
         <v>48</v>
@@ -11528,7 +11535,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="423" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A423" s="40">
         <v>44378</v>
       </c>
@@ -11554,7 +11561,7 @@
         <v>44385</v>
       </c>
     </row>
-    <row r="424" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A424" s="40"/>
       <c r="B424" s="20" t="s">
         <v>45</v>
@@ -11573,7 +11580,7 @@
         <v>44389</v>
       </c>
     </row>
-    <row r="425" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A425" s="40"/>
       <c r="B425" s="20" t="s">
         <v>45</v>
@@ -11592,7 +11599,7 @@
         <v>44417</v>
       </c>
     </row>
-    <row r="426" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A426" s="40">
         <v>44409</v>
       </c>
@@ -11612,7 +11619,7 @@
       <c r="J426" s="11"/>
       <c r="K426" s="20"/>
     </row>
-    <row r="427" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A427" s="40">
         <v>44440</v>
       </c>
@@ -11638,7 +11645,7 @@
         <v>44442</v>
       </c>
     </row>
-    <row r="428" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A428" s="40"/>
       <c r="B428" s="20" t="s">
         <v>45</v>
@@ -11657,7 +11664,7 @@
         <v>44446</v>
       </c>
     </row>
-    <row r="429" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A429" s="40">
         <v>44470</v>
       </c>
@@ -11683,7 +11690,7 @@
         <v>44495</v>
       </c>
     </row>
-    <row r="430" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A430" s="40">
         <v>44501</v>
       </c>
@@ -11703,7 +11710,7 @@
       <c r="J430" s="11"/>
       <c r="K430" s="20"/>
     </row>
-    <row r="431" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A431" s="40">
         <v>44531</v>
       </c>
@@ -11729,7 +11736,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="432" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A432" s="48" t="s">
         <v>81</v>
       </c>
@@ -11747,7 +11754,7 @@
       <c r="J432" s="11"/>
       <c r="K432" s="20"/>
     </row>
-    <row r="433" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A433" s="40">
         <v>44562</v>
       </c>
@@ -11771,7 +11778,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="434" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A434" s="40">
         <v>44593</v>
       </c>
@@ -11797,7 +11804,7 @@
         <v>44599</v>
       </c>
     </row>
-    <row r="435" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A435" s="40"/>
       <c r="B435" s="20" t="s">
         <v>55</v>
@@ -11816,7 +11823,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="436" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A436" s="40">
         <v>44621</v>
       </c>
@@ -11842,7 +11849,7 @@
         <v>44641</v>
       </c>
     </row>
-    <row r="437" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A437" s="40">
         <v>44652</v>
       </c>
@@ -11866,7 +11873,7 @@
         <v>44669</v>
       </c>
     </row>
-    <row r="438" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A438" s="40"/>
       <c r="B438" s="20" t="s">
         <v>63</v>
@@ -11883,7 +11890,7 @@
         <v>44676</v>
       </c>
     </row>
-    <row r="439" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A439" s="40">
         <v>44682</v>
       </c>
@@ -11909,7 +11916,7 @@
         <v>44686</v>
       </c>
     </row>
-    <row r="440" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A440" s="40">
         <v>44713</v>
       </c>
@@ -11935,7 +11942,7 @@
         <v>44732</v>
       </c>
     </row>
-    <row r="441" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A441" s="40"/>
       <c r="B441" s="20" t="s">
         <v>45</v>
@@ -11954,7 +11961,7 @@
         <v>44739</v>
       </c>
     </row>
-    <row r="442" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A442" s="40">
         <v>44743</v>
       </c>
@@ -11980,7 +11987,7 @@
         <v>44757</v>
       </c>
     </row>
-    <row r="443" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A443" s="40"/>
       <c r="B443" s="20" t="s">
         <v>65</v>
@@ -11999,7 +12006,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="444" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A444" s="40"/>
       <c r="B444" s="20" t="s">
         <v>45</v>
@@ -12021,7 +12028,7 @@
         <v>44768</v>
       </c>
     </row>
-    <row r="445" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A445" s="40">
         <v>44774</v>
       </c>
@@ -12047,7 +12054,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="446" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A446" s="40">
         <v>44805</v>
       </c>
@@ -12073,7 +12080,7 @@
         <v>44810</v>
       </c>
     </row>
-    <row r="447" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A447" s="40">
         <v>44835</v>
       </c>
@@ -12097,7 +12104,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="448" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A448" s="40"/>
       <c r="B448" s="20" t="s">
         <v>48</v>
@@ -12119,7 +12126,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="449" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A449" s="40">
         <v>44866</v>
       </c>
@@ -12139,7 +12146,7 @@
       <c r="J449" s="11"/>
       <c r="K449" s="20"/>
     </row>
-    <row r="450" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A450" s="40">
         <v>44896</v>
       </c>
@@ -12165,7 +12172,7 @@
         <v>44910</v>
       </c>
     </row>
-    <row r="451" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A451" s="48" t="s">
         <v>90</v>
       </c>
@@ -12183,7 +12190,7 @@
       <c r="J451" s="11"/>
       <c r="K451" s="20"/>
     </row>
-    <row r="452" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A452" s="40">
         <v>44927</v>
       </c>
@@ -12209,7 +12216,7 @@
         <v>44931</v>
       </c>
     </row>
-    <row r="453" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A453" s="40"/>
       <c r="B453" s="20" t="s">
         <v>45</v>
@@ -12231,7 +12238,7 @@
         <v>44953</v>
       </c>
     </row>
-    <row r="454" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A454" s="40">
         <v>44958</v>
       </c>
@@ -12257,7 +12264,7 @@
         <v>44967</v>
       </c>
     </row>
-    <row r="455" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A455" s="40"/>
       <c r="B455" s="20" t="s">
         <v>93</v>
@@ -12279,7 +12286,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="456" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A456" s="40">
         <v>44986</v>
       </c>
@@ -12305,7 +12312,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="457" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A457" s="40"/>
       <c r="B457" s="20" t="s">
         <v>45</v>
@@ -12327,7 +12334,7 @@
         <v>44999</v>
       </c>
     </row>
-    <row r="458" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A458" s="40">
         <v>45017</v>
       </c>
@@ -12353,7 +12360,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="459" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A459" s="40"/>
       <c r="B459" s="20" t="s">
         <v>63</v>
@@ -12373,7 +12380,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="460" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A460" s="40">
         <v>45047</v>
       </c>
@@ -12397,7 +12404,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="461" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A461" s="40"/>
       <c r="B461" s="20" t="s">
         <v>45</v>
@@ -12419,11 +12426,13 @@
         <v>45065</v>
       </c>
     </row>
-    <row r="462" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A462" s="40">
         <v>45078</v>
       </c>
-      <c r="B462" s="20"/>
+      <c r="B462" s="20" t="s">
+        <v>325</v>
+      </c>
       <c r="C462" s="13"/>
       <c r="D462" s="39"/>
       <c r="E462" s="9"/>
@@ -12432,12 +12441,16 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H462" s="39"/>
+      <c r="H462" s="39">
+        <v>4</v>
+      </c>
       <c r="I462" s="9"/>
       <c r="J462" s="11"/>
-      <c r="K462" s="20"/>
-    </row>
-    <row r="463" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K462" s="20" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="463" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A463" s="40">
         <v>45108</v>
       </c>
@@ -12455,7 +12468,7 @@
       <c r="J463" s="11"/>
       <c r="K463" s="20"/>
     </row>
-    <row r="464" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A464" s="40">
         <v>45139</v>
       </c>
@@ -12473,7 +12486,7 @@
       <c r="J464" s="11"/>
       <c r="K464" s="20"/>
     </row>
-    <row r="465" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A465" s="40">
         <v>45170</v>
       </c>
@@ -12491,7 +12504,7 @@
       <c r="J465" s="11"/>
       <c r="K465" s="20"/>
     </row>
-    <row r="466" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A466" s="40">
         <v>45200</v>
       </c>
@@ -12509,7 +12522,7 @@
       <c r="J466" s="11"/>
       <c r="K466" s="20"/>
     </row>
-    <row r="467" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A467" s="40">
         <v>45231</v>
       </c>
@@ -12527,7 +12540,7 @@
       <c r="J467" s="11"/>
       <c r="K467" s="20"/>
     </row>
-    <row r="468" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A468" s="40">
         <v>45261</v>
       </c>
@@ -12545,7 +12558,7 @@
       <c r="J468" s="11"/>
       <c r="K468" s="20"/>
     </row>
-    <row r="469" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A469" s="40">
         <v>45292</v>
       </c>
@@ -12563,7 +12576,7 @@
       <c r="J469" s="11"/>
       <c r="K469" s="20"/>
     </row>
-    <row r="470" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A470" s="40">
         <v>45323</v>
       </c>
@@ -12581,7 +12594,7 @@
       <c r="J470" s="11"/>
       <c r="K470" s="20"/>
     </row>
-    <row r="471" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A471" s="40">
         <v>45352</v>
       </c>
@@ -12599,7 +12612,7 @@
       <c r="J471" s="11"/>
       <c r="K471" s="20"/>
     </row>
-    <row r="472" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A472" s="40">
         <v>45383</v>
       </c>
@@ -12617,7 +12630,7 @@
       <c r="J472" s="11"/>
       <c r="K472" s="20"/>
     </row>
-    <row r="473" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A473" s="40">
         <v>45413</v>
       </c>
@@ -12635,7 +12648,7 @@
       <c r="J473" s="11"/>
       <c r="K473" s="20"/>
     </row>
-    <row r="474" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A474" s="40">
         <v>45444</v>
       </c>
@@ -12653,7 +12666,7 @@
       <c r="J474" s="11"/>
       <c r="K474" s="20"/>
     </row>
-    <row r="475" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A475" s="40">
         <v>45474</v>
       </c>
@@ -12671,7 +12684,7 @@
       <c r="J475" s="11"/>
       <c r="K475" s="20"/>
     </row>
-    <row r="476" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A476" s="40">
         <v>45505</v>
       </c>
@@ -12689,7 +12702,7 @@
       <c r="J476" s="11"/>
       <c r="K476" s="20"/>
     </row>
-    <row r="477" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A477" s="40">
         <v>45536</v>
       </c>
@@ -12707,7 +12720,7 @@
       <c r="J477" s="11"/>
       <c r="K477" s="20"/>
     </row>
-    <row r="478" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A478" s="40">
         <v>45566</v>
       </c>
@@ -12725,7 +12738,7 @@
       <c r="J478" s="11"/>
       <c r="K478" s="20"/>
     </row>
-    <row r="479" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A479" s="40">
         <v>45597</v>
       </c>
@@ -12743,7 +12756,7 @@
       <c r="J479" s="11"/>
       <c r="K479" s="20"/>
     </row>
-    <row r="480" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A480" s="40">
         <v>45627</v>
       </c>
@@ -12761,7 +12774,7 @@
       <c r="J480" s="11"/>
       <c r="K480" s="20"/>
     </row>
-    <row r="481" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A481" s="40">
         <v>45658</v>
       </c>
@@ -12779,7 +12792,7 @@
       <c r="J481" s="11"/>
       <c r="K481" s="20"/>
     </row>
-    <row r="482" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A482" s="40">
         <v>45689</v>
       </c>
@@ -12797,7 +12810,7 @@
       <c r="J482" s="11"/>
       <c r="K482" s="20"/>
     </row>
-    <row r="483" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A483" s="40">
         <v>45717</v>
       </c>
@@ -12815,7 +12828,7 @@
       <c r="J483" s="11"/>
       <c r="K483" s="20"/>
     </row>
-    <row r="484" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A484" s="40">
         <v>45748</v>
       </c>
@@ -12833,7 +12846,7 @@
       <c r="J484" s="11"/>
       <c r="K484" s="20"/>
     </row>
-    <row r="485" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A485" s="40">
         <v>45778</v>
       </c>
@@ -12851,7 +12864,7 @@
       <c r="J485" s="11"/>
       <c r="K485" s="20"/>
     </row>
-    <row r="486" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A486" s="40">
         <v>45809</v>
       </c>
@@ -12869,7 +12882,7 @@
       <c r="J486" s="11"/>
       <c r="K486" s="20"/>
     </row>
-    <row r="487" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A487" s="40">
         <v>45839</v>
       </c>
@@ -12887,7 +12900,7 @@
       <c r="J487" s="11"/>
       <c r="K487" s="20"/>
     </row>
-    <row r="488" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A488" s="40">
         <v>45870</v>
       </c>
@@ -12905,7 +12918,7 @@
       <c r="J488" s="11"/>
       <c r="K488" s="20"/>
     </row>
-    <row r="489" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A489" s="40">
         <v>45901</v>
       </c>
@@ -12923,7 +12936,7 @@
       <c r="J489" s="11"/>
       <c r="K489" s="20"/>
     </row>
-    <row r="490" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A490" s="40">
         <v>45931</v>
       </c>
@@ -12941,7 +12954,7 @@
       <c r="J490" s="11"/>
       <c r="K490" s="20"/>
     </row>
-    <row r="491" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A491" s="40">
         <v>45962</v>
       </c>
@@ -12959,7 +12972,7 @@
       <c r="J491" s="11"/>
       <c r="K491" s="20"/>
     </row>
-    <row r="492" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A492" s="40">
         <v>45992</v>
       </c>
@@ -12977,7 +12990,7 @@
       <c r="J492" s="11"/>
       <c r="K492" s="20"/>
     </row>
-    <row r="493" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A493" s="40">
         <v>46023</v>
       </c>
@@ -12995,7 +13008,7 @@
       <c r="J493" s="11"/>
       <c r="K493" s="20"/>
     </row>
-    <row r="494" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A494" s="40">
         <v>46054</v>
       </c>
@@ -13013,7 +13026,7 @@
       <c r="J494" s="11"/>
       <c r="K494" s="20"/>
     </row>
-    <row r="495" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A495" s="40">
         <v>46082</v>
       </c>
@@ -13031,7 +13044,7 @@
       <c r="J495" s="11"/>
       <c r="K495" s="20"/>
     </row>
-    <row r="496" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A496" s="40">
         <v>46113</v>
       </c>
@@ -13049,7 +13062,7 @@
       <c r="J496" s="11"/>
       <c r="K496" s="20"/>
     </row>
-    <row r="497" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A497" s="40">
         <v>46143</v>
       </c>
@@ -13067,7 +13080,7 @@
       <c r="J497" s="11"/>
       <c r="K497" s="20"/>
     </row>
-    <row r="498" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A498" s="40">
         <v>46174</v>
       </c>
@@ -13085,7 +13098,7 @@
       <c r="J498" s="11"/>
       <c r="K498" s="20"/>
     </row>
-    <row r="499" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A499" s="40">
         <v>46204</v>
       </c>
@@ -13103,7 +13116,7 @@
       <c r="J499" s="11"/>
       <c r="K499" s="20"/>
     </row>
-    <row r="500" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A500" s="40"/>
       <c r="B500" s="20"/>
       <c r="C500" s="13"/>
@@ -13119,7 +13132,7 @@
       <c r="J500" s="11"/>
       <c r="K500" s="20"/>
     </row>
-    <row r="501" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A501" s="40"/>
       <c r="B501" s="20"/>
       <c r="C501" s="13"/>
@@ -13135,7 +13148,7 @@
       <c r="J501" s="11"/>
       <c r="K501" s="20"/>
     </row>
-    <row r="502" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A502" s="40"/>
       <c r="B502" s="20"/>
       <c r="C502" s="13"/>
@@ -13151,7 +13164,7 @@
       <c r="J502" s="11"/>
       <c r="K502" s="20"/>
     </row>
-    <row r="503" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A503" s="40"/>
       <c r="B503" s="20"/>
       <c r="C503" s="13"/>
@@ -13167,7 +13180,7 @@
       <c r="J503" s="11"/>
       <c r="K503" s="20"/>
     </row>
-    <row r="504" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A504" s="40"/>
       <c r="B504" s="20"/>
       <c r="C504" s="13"/>
@@ -13183,7 +13196,7 @@
       <c r="J504" s="11"/>
       <c r="K504" s="20"/>
     </row>
-    <row r="505" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A505" s="40"/>
       <c r="B505" s="20"/>
       <c r="C505" s="13"/>
@@ -13199,7 +13212,7 @@
       <c r="J505" s="11"/>
       <c r="K505" s="20"/>
     </row>
-    <row r="506" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A506" s="41"/>
       <c r="B506" s="15"/>
       <c r="C506" s="42"/>
@@ -13230,10 +13243,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -13256,28 +13269,28 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.140625" customWidth="1"/>
-    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" customWidth="1"/>
+    <col min="1" max="1" width="21.33203125" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.109375" customWidth="1"/>
+    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.88671875" customWidth="1"/>
+    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D1" s="61" t="s">
         <v>33</v>
       </c>
@@ -13290,7 +13303,7 @@
       <c r="K1" s="62"/>
       <c r="L1" s="62"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -13319,7 +13332,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="D3" s="11">
@@ -13345,17 +13358,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>324</v>
       </c>
@@ -13379,10 +13392,10 @@
       <c r="K6" s="63"/>
       <c r="L6" s="63"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="11">
         <f>SUM(Sheet1!E9,Sheet1!I9)</f>
-        <v>210.93200000000002</v>
+        <v>206.93200000000002</v>
       </c>
       <c r="C7" s="37">
         <v>1</v>
@@ -13410,7 +13423,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -13436,7 +13449,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -13462,7 +13475,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -13488,7 +13501,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -13514,7 +13527,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -13540,7 +13553,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -13566,7 +13579,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -13592,7 +13605,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -13612,7 +13625,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -13632,7 +13645,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -13652,7 +13665,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -13673,7 +13686,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -13694,7 +13707,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -13715,7 +13728,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -13736,7 +13749,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -13757,7 +13770,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -13778,7 +13791,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -13799,7 +13812,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -13820,7 +13833,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -13841,7 +13854,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -13862,7 +13875,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -13883,7 +13896,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -13904,7 +13917,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -13925,7 +13938,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -13946,7 +13959,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -13967,7 +13980,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -13988,7 +14001,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -14009,7 +14022,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -14030,7 +14043,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -14051,7 +14064,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -14072,7 +14085,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -14081,7 +14094,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -14090,7 +14103,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -14099,7 +14112,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -14108,7 +14121,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -14117,7 +14130,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -14126,7 +14139,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -14135,7 +14148,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -14144,7 +14157,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -14153,7 +14166,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -14162,7 +14175,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -14171,7 +14184,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -14180,7 +14193,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -14189,7 +14202,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -14198,7 +14211,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -14207,7 +14220,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -14216,7 +14229,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -14225,7 +14238,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -14234,7 +14247,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -14243,7 +14256,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -14252,7 +14265,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -14261,7 +14274,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -14270,7 +14283,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -14279,7 +14292,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -14288,7 +14301,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -14297,7 +14310,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -14306,7 +14319,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -14315,7 +14328,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -14324,7 +14337,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -14333,7 +14346,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>
